--- a/data/Chromosome_data.xlsx
+++ b/data/Chromosome_data.xlsx
@@ -9,6 +9,11 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Chromosome 0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Chromosome 1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Chromosome 2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Chromosome 3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Chromosome 4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Chromosome 5" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -346,91 +351,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-2020-06-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-2020-04-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-2020-09-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-2020-10-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-2020-08-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-2020-07-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-2020-05-05 00:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-29 OLD12 OLD1 OLD7 NB_T427 NB_T39 EHC_10224 NB_T510 NB_T2EHC_101NB_T1EHC_201EHC_EXT_A33 EHC_EXT_B11 NB_T323 EHC_EXT_B15 EHC_EXT_A30 NB_R214 NB_R1NB_T4</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-13 OLDEHC_201NB_T22 NB_T3NB_T537 NB_T13 NB_T4EHC_102EHC_10132 NB_T1</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-8 OLDEHC_201NB_T3EHC_10221 NB_T138 NB_T436 EHC_10125 NB_T242 NB_T519 NB_T122 EHC_101NB_T5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-35 OLD6 OLDEHC_102NB_T4EHC_20134 NB_T331 NB_T2EHC_101NB_T1NB_T5NB_T326 EHC_20120 EHC_20140 EHC_EXT_B16 EHC_EXT_A4 EHC_201NB_T3NB_R217 NB_R118 EHC_EXT_B41 EHC_EXT_B5 NB_R2EHC_EXT_B28 EHC_EXT_A39 NB_R1EHC_EXT_B</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -441,14 +369,1526 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 152: OLD, NB_T5, EHC_201; SOWK 156: NB_T4; CAT 151: EHC_102; LING 154: NB_T2; CSM 184: EHC_101; GEOG 154: NB_T3; CAT 154: NB_T1, EHC_102, EHC_EXT_B; GEOG 156: EHC_EXT_A; CAT 152: NB_T4, EHC_EXT_B; GEOG 152: NB_T2; RS 154: EHC_101; SOC 152: NB_R2; CHIN 104: NB_R1; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CSM 152: OLD, NB_T1, EHC_201, NB_T4; CHIN 106: NB_T5, NB_T2, NB_T3, EHC_102; IRAI ALL: EHC_101; CECAST COURSE: EHC_101, NB_T4, EHC_EXT_B, EHC_EXT_A; ENGL 164: EHC_EXT_A; HIS 154: NB_R2; FC 182: NB_R1; COMS 152: NB_R2, EHC_EXT_A; RS 152: NB_R1; RS 156: EHC_EXT_A; SOWK 158: NB_R1, EHC_EXT_A; </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 152: OLD; COMS 154: OLD, NB_T3, NB_T5, EHC_101; FREF 154: EHC_102; FERF 152: NB_T1; CSM 184: NB_T4; </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+COMS 156: OLD; HIST 156: OLD; FREF 156: OLD; POL 156: EHC_101; MATH 154: EHC_201, NB_T4, NB_T5, EHC_102, NB_T1; CHIN 102: NB_T2, NB_T3; POL 152: EHC_101; ENGL 152: EHC_101; ENGL 166: EHC_EXT_B; LING 152: EHC_EXT_A; ENGL 158: NB_T1; ECON 154: EHC_EXT_B, NB_R2; SOC 154: NB_R1, NB_T3; </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD, NB_T2, EHC_101, NB_T3; SOWK 158: NB_T4; CHIN 104: NB_T5; FERF 152: NB_T1; CAT 151: EHC_102; IRAI ALL: EHC_201; CAT 152: NB_T1, EHC_102; GEOG 156: EHC_201; CSM 152: EHC_EXT_A, NB_T3, EHC_EXT_B, EHC_102, NB_T4, NB_T5, NB_R2; SOWK 156: NB_R1; CSM 184: EHC_201, NB_R2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 164: OLD; FREF 156: OLD; LING 152: NB_T3; GEOG 154: NB_T4; CAT 154: NB_T5, EHC_201; HIST 152: EHC_101; COMS 152: NB_T2; ECON 154: EHC_102; SOC 152: NB_T1; RS 156: NB_T1; POL 156: NB_T1; SOC 154: EHC_EXT_A, EHC_EXT_B; HIS 154: EHC_101; CHIN 102: NB_T1, EHC_101, EHC_EXT_B; ENGL 166: NB_R1; FREF 154: NB_R2; LING 154: NB_R1, NB_T2; RS 152: OLD; CSM 184: NB_T3; </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CHIN 106: OLD, NB_T3, NB_T5; FC 182: NB_T4; GEOG 152: EHC_102; POL 152: EHC_201; COMS 156: NB_T2; CECAST COURSE: EHC_101, NB_T1, EHC_201; </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+COMS 154: OLD, EHC_102, NB_T1, EHC_101; ECON 152: EHC_201, NB_T3, NB_T2, NB_T4; RS 154: NB_T5; HIST 156: NB_T5; ENGL 158: EHC_EXT_A; ENGL 152: EHC_EXT_B; </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+COMS 152: OLD; COMS 154: OLD, NB_T1, NB_T4, EHC_102, NB_T3; POL 152: NB_T5; SOC 154: NB_T2; FREF 154: EHC_101; IRAI ALL: EHC_201; CAT 151: NB_T5; CSM 184: NB_T3; CHIN 102: EHC_101, EHC_201; LING 152: NB_T5; ENGL 164: NB_T3; LING 154: EHC_EXT_B; RS 152: EHC_EXT_A; CSM 184: EHC_EXT_A; GEOG 154: NB_T3, NB_R2; HIS 154: NB_R1; ENGL 166: NB_R1; FC 182: NB_R1; ECON 154: NB_T5, EHC_201, NB_R1, EHC_EXT_B; </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOWK 158: OLD; HIST 152: OLD; FREF 156: OLD; GEOG 156: EHC_102; RS 154: EHC_201; ENGL 152: NB_T4; GEOG 152: NB_T5; CAT 154: NB_T3, NB_T2; COMS 156: NB_T1; CAT 152: EHC_101, EHC_201; SOWK 156: EHC_201; ENGL 158: EHC_EXT_A; SOC 152: EHC_EXT_B; CECAST COURSE: EHC_EXT_B, EHC_102, NB_T5, NB_T4, NB_R1; HIST 156: NB_R2; RS 156: EHC_201; </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CSM 152: OLD, NB_T3, EHC_101, NB_T4; CHIN 104: NB_T2; FERF 152: EHC_102; POL 156: NB_T1; </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CHIN 106: OLD, NB_T3, EHC_101; MATH 154: NB_T4, NB_T1, EHC_201, NB_T5, EHC_102; ECON 152: NB_T2, EHC_EXT_B, EHC_EXT_A, EHC_102, NB_R1, NB_R2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CHIN 104: OLD; LING 154: OLD; SOC 152: OLD; CHIN 106: OLD, NB_T2, NB_T1, NB_T5; GEOG 156: EHC_201; ENGL 152: NB_T3; MATH 154: EHC_102, NB_T4, EHC_101, EHC_EXT_A, EHC_EXT_B; RS 152: EHC_201; HIS 154: NB_T3; SOWK 158: NB_R2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CAT 154: OLD; HIST 152: NB_T4; CECAST COURSE: EHC_102, EHC_101, NB_T5; RS 154: NB_T1; CSM 184: NB_T3; GEOG 152: NB_T2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 152: OLD, NB_T5, EHC_201; FREF 154: EHC_102; POL 156: NB_T4; FC 182: NB_T1; IRAI ALL: NB_T3; POL 152: NB_T2; COMS 152: EHC_101; FERF 152: NB_T2; HIST 156: EHC_102; COMS 156: NB_T3; RS 156: NB_T2; SOWK 156: NB_T1; ENGL 164: NB_T4; FREF 156: NB_T2, EHC_102; ECON 154: EHC_EXT_B, EHC_EXT_A; SOC 154: EHC_EXT_A, NB_T1; CAT 152: NB_T4, NB_R2, NB_R1; LING 152: EHC_101, NB_R1; </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CSM 152: OLD, NB_T2, NB_T4, EHC_101; GEOG 154: NB_T1; ENGL 158: EHC_201; COMS 154: NB_T3, NB_T5, EHC_102, EHC_101, EHC_EXT_A; ENGL 166: EHC_EXT_B; CAT 151: EHC_EXT_B; CSM 184: EHC_EXT_B; CHIN 102: NB_R2, NB_R1, EHC_201, NB_T1; </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CAT 151: OLD; GEOG 156: OLD; ENGL 164: OLD; SOWK 158: OLD; SOWK 156: NB_T2; COMS 154: NB_T1, NB_T3, EHC_201, EHC_102, NB_T4; CSM 184: EHC_101; ENGL 166: NB_T5; POL 152: NB_T5; HIS 154: NB_T5; ECON 154: NB_T5; SOC 152: OLD; LING 152: OLD; CECAST COURSE: EHC_EXT_A, EHC_EXT_B, NB_T2, NB_R2; RS 154: NB_T4; HIST 152: NB_R1; COMS 152: EHC_101, NB_T4; </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 152: OLD, NB_T1, EHC_102; CSM 152: NB_T4, NB_T2, NB_T5, EHC_101, NB_T3; CAT 154: EHC_201, EHC_EXT_A, NB_T3; CHIN 102: EHC_EXT_B, NB_T3, NB_R1; GEOG 152: NB_R2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+FREF 156: OLD; FC 182: EHC_102; CSM 184: EHC_101; ENGL 152: NB_T5; CAT 152: NB_T1, NB_T4; POL 156: EHC_201; ENGL 158: NB_T3; HIST 156: NB_T2; RS 156: NB_T4; FERF 152: NB_T2; GEOG 154: EHC_101, EHC_102; MATH 154: EHC_102, NB_T4, EHC_201, NB_T2, OLD, EHC_EXT_B; COMS 156: EHC_EXT_A; LING 154: NB_T5; FREF 154: NB_R2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CHIN 104: OLD; CHIN 106: OLD, EHC_101, EHC_201, EHC_102; IRAI ALL: NB_T2; SOC 154: NB_T5; RS 152: NB_T4; </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+COMS 154: OLD, NB_T1, EHC_201, NB_T4; CAT 154: NB_T2, NB_T3; ENGL 152: EHC_101; ECON 154: EHC_102; FREF 154: NB_T5; CSM 184: NB_T5; RS 156: EHC_EXT_A; SOWK 158: EHC_EXT_B; CECAST COURSE: EHC_EXT_A, EHC_101, NB_T4, NB_R2, NB_R1; RS 152: NB_T5; SOC 152: EHC_EXT_B; RS 154: EHC_EXT_B; GEOG 154: NB_T5, EHC_EXT_B, NB_R1, EHC_102; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD, NB_T1, EHC_102, EHC_201; LING 152: NB_T2; CAT 151: EHC_101; HIST 156: NB_T5; CHIN 102: NB_T4, NB_T3; FREF 156: EHC_101, NB_T5; ENGL 166: EHC_EXT_B; CAT 152: EHC_201, EHC_EXT_A; SOWK 156: EHC_EXT_B; POL 152: NB_T5; POL 156: NB_R2; COMS 156: NB_R1, NB_T5; GEOG 156: NB_T3; CSM 184: NB_T2; CHIN 104: EHC_EXT_B; </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 152: OLD, NB_T4, EHC_101; ENGL 164: NB_T1; SOC 154: NB_T3; HIS 154: EHC_102; FERF 152: NB_T5; ENGL 158: NB_T2; HIST 152: EHC_201; LING 154: EHC_102; FC 182: NB_T5; CHIN 106: NB_T5, EHC_EXT_A, EHC_EXT_B, EHC_201, NB_T1, NB_R1; GEOG 152: NB_R2; COMS 152: NB_T2, EHC_102; IRAI ALL: EHC_102; </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CSM 152: OLD, NB_T3, EHC_201, NB_T4; </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/data/Chromosome_data.xlsx
+++ b/data/Chromosome_data.xlsx
@@ -8,12 +8,31 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Chromosome 0" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Chromosome 1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Chromosome 2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Chromosome 3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Chromosome 4" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Chromosome 5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Chromosome 1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Chromosome 2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Chromosome 3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Chromosome 4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Chromosome 5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Chromosome 6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Chromosome 7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Chromosome 8" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Chromosome 9" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Chromosome 10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Chromosome 11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Chromosome 12" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Chromosome 13" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Chromosome 14" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Chromosome 15" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Chromosome 16" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Chromosome 17" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Chromosome 18" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Chromosome 19" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Chromosome 20" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Chromosome 21" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Chromosome 22" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Chromosome 23" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Chromosome 24" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Chromosome 25" sheetId="26" state="visible" r:id="rId26"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -351,14 +370,2927 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>HARD CONSTRAINT VALUE</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>PENALTY VALUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>54</v>
+      </c>
+      <c r="C2" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>53</v>
+      </c>
+      <c r="C3" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>46</v>
+      </c>
+      <c r="C4" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>54</v>
+      </c>
+      <c r="C5" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>48</v>
+      </c>
+      <c r="C6" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>53</v>
+      </c>
+      <c r="C7" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>49</v>
+      </c>
+      <c r="C8" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>47</v>
+      </c>
+      <c r="C9" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>48</v>
+      </c>
+      <c r="C10" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>45</v>
+      </c>
+      <c r="C11" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>48</v>
+      </c>
+      <c r="C12" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>43</v>
+      </c>
+      <c r="C13" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>51</v>
+      </c>
+      <c r="C14" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>45</v>
+      </c>
+      <c r="C15" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>42</v>
+      </c>
+      <c r="C16" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>42</v>
+      </c>
+      <c r="C17" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>54</v>
+      </c>
+      <c r="C18" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>40</v>
+      </c>
+      <c r="C19" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>46</v>
+      </c>
+      <c r="C20" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>54</v>
+      </c>
+      <c r="C21" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>41</v>
+      </c>
+      <c r="C23" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>52</v>
+      </c>
+      <c r="C24" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>49</v>
+      </c>
+      <c r="C25" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>41</v>
+      </c>
+      <c r="C26" t="n">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOWK 156: OLD; RS 156: OLD; IRAI ALL: OLD; HIST 152: OLD; FC 182: OLD; FERF 152: OLD; SOWK 158: NB_T1; LING 152: NB_T2; COMS 152: NB_T4; CECAST COURSE: EHC_201, NB_T5, EHC_102; CAT 151: NB_T3; POL 156: EHC_101; ENGL 164: OLD; GEOG 154: NB_T3; COMS 156: EHC_101; SOC 152: EHC_EXT_B; CSM 184: EHC_EXT_A; HIS 154: EHC_EXT_B; FREF 156: OLD, EHC_EXT_B; GEOG 156: NB_T1; CHIN 104: EHC_EXT_A; RS 152: EHC_102; POL 152: NB_R2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD, EHC_201, NB_T2, EHC_101; RS 154: NB_T1; ENGL 166: EHC_102; CSM 152: NB_T3, NB_T4, NB_T5, EHC_102, NB_T1; CHIN 102: EHC_EXT_A, EHC_101, EHC_EXT_B; CSM 184: EHC_EXT_B; LING 154: NB_T1; FREF 154: NB_R2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+COMS 154: OLD, NB_T1, EHC_201, NB_T5; ECON 154: NB_T2; HIST 156: NB_T3; CAT 152: EHC_101, NB_T4; </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CAT 154: OLD; ECON 152: EHC_102, NB_T2, EHC_201, NB_T1; ENGL 158: NB_T3; GEOG 152: NB_T5; SOC 154: EHC_101; CHIN 106: NB_T4, EHC_EXT_B, EHC_EXT_A, NB_T5, NB_R1, NB_R2; ENGL 152: NB_T3, EHC_101; </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CSM 152: OLD, EHC_101, NB_T4, EHC_102; HIST 152: EHC_201; COMS 152: NB_T5; RS 154: NB_T3; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+COMS 154: OLD, EHC_102, NB_T2, EHC_101; CHIN 104: NB_T4; ECON 154: EHC_201; SOC 154: NB_T3; POL 156: NB_T1; CSM 184: NB_T5; HIST 156: NB_T1; GEOG 154: EHC_EXT_A, EHC_EXT_B; FC 182: NB_T1; ENGL 164: EHC_EXT_B; RS 152: NB_T4; SOWK 156: NB_T1; CAT 154: EHC_101, NB_R2, NB_R1, NB_T5; CAT 151: NB_T4; GEOG 152: NB_T4, EHC_EXT_B; LING 152: EHC_EXT_B, NB_T1, EHC_201; </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+COMS 156: OLD; CAT 152: OLD; ECON 152: NB_T5, NB_T2, NB_T3, NB_T1; POL 152: EHC_102; ENGL 166: EHC_101; MATH 154: NB_T4, EHC_201, EHC_102, EHC_101, EHC_EXT_B; </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CHIN 106: OLD, NB_T4, EHC_102; FREF 154: NB_T2; SOWK 158: NB_T3; RS 156: NB_T5; LING 154: EHC_201; CHIN 102: EHC_101, NB_T1; FERF 152: NB_T2; SOC 152: NB_T5; ENGL 158: NB_T5; CSM 184: NB_T2; ENGL 152: EHC_EXT_A; CECAST COURSE: EHC_EXT_B, NB_T2, NB_T3, NB_R2; FREF 156: NB_R1, EHC_201, NB_T1; HIS 154: NB_T5; GEOG 156: NB_T5, EHC_EXT_A; IRAI ALL: NB_T1; </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD, NB_T1, EHC_101, NB_T5; HIS 154: EHC_201; LING 152: NB_T2; POL 152: NB_T4; CECAST COURSE: EHC_102, NB_T3, NB_T4; SOWK 156: EHC_201; CAT 154: EHC_EXT_B, EHC_EXT_A, NB_T5; FERF 152: EHC_201; FREF 154: EHC_201; FREF 156: EHC_201, NB_R1, NB_R2; LING 154: NB_T4, NB_T2; COMS 152: NB_T2, NB_R2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CSM 152: OLD, EHC_101, NB_T1, EHC_201; IRAI ALL: NB_T3; CHIN 106: NB_T4, NB_T2, EHC_102, NB_T5; COMS 156: NB_T3; CAT 151: EHC_201; RS 154: EHC_EXT_A; </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 152: OLD; CAT 152: OLD; POL 156: EHC_101; ECON 152: NB_T1, NB_T4, NB_T3, EHC_102; SOC 152: EHC_201; RS 156: NB_T5; GEOG 156: NB_T2; SOWK 158: EHC_201; CSM 184: NB_T5; CHIN 104: EHC_101; HIST 156: EHC_EXT_B; SOC 154: EHC_EXT_A, EHC_201; ENGL 164: EHC_EXT_B; ENGL 158: NB_T2; RS 152: NB_R1; </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 154: OLD; ECON 154: OLD; GEOG 152: EHC_201; FC 182: NB_T3; COMS 154: NB_T2, NB_T1, NB_T4, EHC_101, NB_T5; CHIN 102: EHC_102, NB_T3; CSM 184: EHC_EXT_B; ENGL 166: EHC_EXT_A; HIST 152: EHC_EXT_A; </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 152: OLD, NB_T4, NB_T5; HIS 154: NB_T2; CSM 152: EHC_201, NB_T3, EHC_101, NB_T1, EHC_102; ENGL 166: NB_T2; COMS 152: NB_T2; FREF 156: EHC_EXT_A, EHC_EXT_B; CSM 184: EHC_102; LING 152: NB_R1, NB_R2; FC 182: NB_R2; CHIN 104: NB_T2, NB_R2; RS 152: NB_R2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 154: OLD; COMS 156: OLD; RS 156: EHC_102; CAT 152: NB_T2, NB_T1; LING 154: EHC_201; SOC 152: NB_T5; SOC 154: EHC_101; </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOWK 158: OLD; GEOG 152: OLD; CHIN 102: OLD, NB_T3; ENGL 158: EHC_201; POL 156: NB_T1; CECAST COURSE: EHC_102, NB_T5, EHC_101; FERF 152: NB_T2; CAT 151: NB_T4; GEOG 156: NB_T2; POL 152: NB_T4; HIST 156: NB_T4; IRAI ALL: NB_T1; ENGL 164: EHC_EXT_B; COMS 154: EHC_EXT_A, NB_T4, NB_T1, NB_T3, NB_T2, EHC_101, NB_R2, NB_R1; ENGL 152: EHC_201, EHC_EXT_B; </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CAT 154: OLD; RS 154: NB_T1; CSM 184: EHC_102; HIST 152: NB_T4; MATH 154: EHC_201, EHC_101, NB_T5, NB_T2, NB_T3; FREF 154: NB_T1; CHIN 106: EHC_102, NB_T1, EHC_EXT_B, EHC_EXT_A, NB_T3, NB_T4; SOWK 156: NB_T4; ECON 154: NB_R2, NB_R1; </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 152: OLD, NB_T1, NB_T4; CHIN 106: NB_T5, EHC_102, EHC_101, NB_T3; SOWK 158: EHC_201; CAT 154: NB_T2, EHC_EXT_B, EHC_EXT_A; FREF 154: EHC_201; SOC 154: EHC_201, EHC_EXT_A; HIS 154: NB_R2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+COMS 154: OLD, EHC_101, NB_T2, EHC_102; FERF 152: NB_T5; CECAST COURSE: NB_T3, NB_T1, EHC_201; GEOG 152: NB_T4; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+FREF 156: OLD; COMS 156: EHC_201; LING 154: NB_T5; CSM 184: NB_T2; RS 156: EHC_102; CSM 184: NB_T4; IRAI ALL: NB_T3; CSM 152: NB_T1, EHC_101, EHC_102, NB_T3, NB_T4; CHIN 102: OLD, EHC_EXT_A, EHC_EXT_B; RS 152: EHC_EXT_B; </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 156: OLD; ECON 154: OLD; GEOG 156: EHC_102; ENGL 166: NB_T5; RS 154: EHC_101; ENGL 152: EHC_201; CAT 152: NB_T3, NB_T1; MATH 154: NB_T4, NB_T2, OLD, NB_T5, NB_T1; GEOG 154: EHC_101; HIST 152: EHC_EXT_A; FC 182: EHC_EXT_B; LING 152: NB_T1; CAT 151: EHC_102; POL 156: EHC_EXT_B; SOWK 156: EHC_201; COMS 152: NB_R1, NB_R2; ENGL 158: EHC_102, EHC_EXT_A; SOC 152: NB_R2; CHIN 104: NB_R2; POL 152: EHC_EXT_A; ENGL 164: EHC_EXT_A; </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CSM 184: OLD; RS 152: OLD; HIST 156: OLD; FC 182: OLD; RS 154: OLD; ENGL 166: EHC_201; COMS 154: NB_T5, EHC_102, NB_T3, NB_T1, NB_T2; SOWK 158: NB_T4; MATH 154: EHC_101, EHC_201, OLD, EHC_EXT_B, EHC_EXT_A; </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CECAST COURSE: OLD, EHC_101; CHIN 102: NB_T5, EHC_201; GEOG 152: EHC_102; POL 156: NB_T1; FREF 156: NB_T3, NB_T2; CAT 154: NB_T4, NB_T1, NB_T2; GEOG 154: EHC_EXT_B, EHC_EXT_A; SOC 154: EHC_EXT_A, NB_T2; FREF 154: EHC_102; SOC 152: EHC_101; HIS 154: EHC_102; RS 156: NB_R2; CHIN 104: NB_R1; CAT 151: EHC_101; CSM 184: EHC_102; COMS 152: EHC_201, NB_R2; IRAI ALL: EHC_101; SOWK 156: NB_T2; ECON 154: NB_R2, EHC_102, EHC_101; </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 156: OLD; COMS 156: OLD; ENGL 152: EHC_102; HIST 152: EHC_101; FERF 152: OLD; LING 154: NB_T2; ENGL 158: NB_T3; CAT 152: NB_T1, NB_T5; CSM 152: EHC_201, NB_T4, OLD, NB_T5, EHC_EXT_A; CHIN 106: EHC_EXT_B, EHC_101, EHC_102, NB_R1, NB_T2, NB_R2, NB_T3, EHC_EXT_A; POL 152: EHC_EXT_A; </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 152: OLD, EHC_201, EHC_102; LING 152: NB_T5; ENGL 164: NB_T4; </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 152: OLD; COMS 156: OLD; CHIN 102: OLD, NB_T5; IRAI ALL: EHC_201; SOWK 158: NB_T1; FREF 156: NB_T4, NB_T3; RS 152: NB_T2; FREF 154: EHC_101; SOC 152: EHC_102; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 166: OLD; ECON 152: OLD, NB_T5, EHC_101; ENGL 164: NB_T2; ECON 154: NB_T3; LING 152: EHC_201; HIST 156: NB_T4; POL 156: NB_T1; CSM 152: EHC_102, NB_T4, NB_T1, EHC_EXT_B, EHC_EXT_A, NB_T2; ENGL 152: NB_T2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+COMS 154: OLD, NB_T1, NB_T5, NB_T3; SOC 154: EHC_101; CHIN 104: EHC_102; FC 182: EHC_201; GEOG 152: NB_T2; GEOG 154: NB_T4; MATH 154: EHC_201, EHC_EXT_B, EHC_EXT_A, EHC_102, NB_T2, NB_R2, NB_T3; SOWK 156: NB_R1; CAT 151: NB_T3; CSM 184: NB_R1; GEOG 156: NB_T3, NB_T4, EHC_101, NB_R1; </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CHIN 106: OLD, NB_T4, NB_T2; LING 154: EHC_102; CAT 152: EHC_201, NB_T3; HIS 154: EHC_101; CAT 154: NB_T5, NB_T1; COMS 152: EHC_101; CECAST COURSE: NB_T3, EHC_EXT_B, EHC_EXT_A, NB_R1; ENGL 158: EHC_102, NB_R2; RS 154: NB_R2; FERF 152: NB_R1; RS 156: EHC_101; POL 152: NB_R1; CSM 184: NB_R1, EHC_101; </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CSM 152: OLD, NB_T2, NB_T3, NB_T5; ECON 154: EHC_201; COMS 154: NB_T4, EHC_102, NB_T1, EHC_101, NB_T5; CAT 151: EHC_EXT_A; COMS 152: EHC_EXT_B; FREF 154: EHC_EXT_A; CAT 152: EHC_EXT_A, NB_R2; SOWK 158: NB_R1; ENGL 166: NB_T5; HIST 156: NB_T5; POL 156: EHC_EXT_B; CSM 184: NB_R1, EHC_201; </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+RS 152: OLD; CHIN 104: OLD; CSM 184: OLD; FERF 152: EHC_101; LING 152: EHC_102; COMS 156: NB_T5; SOC 152: NB_T3; CAT 154: NB_T2, NB_T1; RS 154: NB_T4; CHIN 102: EHC_201, OLD; POL 152: NB_T3; GEOG 156: NB_T3; FREF 156: EHC_101, NB_T4; CECAST COURSE: EHC_EXT_B, EHC_EXT_A, NB_T3, NB_T4; SOC 154: NB_R2, NB_R1; GEOG 154: OLD, EHC_102; LING 154: NB_T5, NB_T4; </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CHIN 106: OLD, NB_T5, NB_T4; ENGL 164: EHC_102; SOWK 156: NB_T1; IRAI ALL: NB_T3; FC 182: EHC_101; ECON 152: EHC_201, NB_T2, NB_T3, EHC_101, EHC_EXT_B; HIST 152: EHC_EXT_A; </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD, EHC_102, EHC_101, NB_T2; RS 156: NB_T1; ENGL 158: NB_T4; GEOG 152: EHC_201; ENGL 152: NB_T5; HIS 154: NB_T3; </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CAT 151: OLD; RS 156: OLD; COMS 154: OLD, NB_T1, NB_T3, NB_T4; HIST 156: NB_T5; SOWK 158: EHC_201; CSM 184: EHC_102; COMS 156: NB_T2; LING 152: EHC_101; GEOG 152: NB_T5; ENGL 152: EHC_EXT_B; CHIN 104: EHC_EXT_A; CHIN 106: EHC_201, NB_R1, EHC_102, NB_R2, EHC_101, NB_T5, NB_T2, EHC_EXT_A, NB_T4; HIS 154: EHC_EXT_B; POL 156: EHC_EXT_B; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 154: OLD; CAT 152: OLD; RS 152: EHC_101; FREF 156: EHC_102, NB_T1; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CHIN 102: OLD; CECAST COURSE: EHC_101, NB_T5, NB_T4; GEOG 154: EHC_102; HIST 152: NB_T1; ENGL 164: EHC_201; ENGL 166: NB_T3; SOC 154: NB_T2; MATH 154: NB_T3, EHC_EXT_B, EHC_EXT_A, NB_T1, EHC_201, NB_T4; CSM 184: NB_R1; COMS 152: NB_R2, OLD; GEOG 156: OLD; LING 154: NB_R1, NB_T4; </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+FC 182: OLD; IRAI ALL: OLD; SOC 152: OLD; ENGL 158: OLD; RS 154: OLD; ECON 152: OLD, EHC_101, EHC_102, NB_T3; CSM 152: EHC_201, NB_T5, NB_T2, NB_T1, NB_T4; FREF 154: EHC_EXT_A; CAT 154: EHC_EXT_B, NB_T4, EHC_EXT_A; FERF 152: NB_R1; SOWK 156: NB_R2; POL 152: NB_R1; </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CSM 152: OLD, NB_T5, NB_T2, NB_T4; HIS 154: EHC_102; GEOG 156: NB_T3; POL 156: EHC_201; CAT 154: EHC_101, NB_T1; CHIN 106: EHC_102, EHC_201, EHC_EXT_B, NB_T4, EHC_EXT_A; COMS 152: NB_T3; RS 152: NB_R1; GEOG 154: NB_R2, NB_R1; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 152: OLD, NB_T3, NB_T4; FREF 156: NB_T2, NB_T5; ENGL 152: NB_T1; FREF 154: EHC_102; SOC 152: EHC_101; COMS 154: EHC_201, EHC_101, EHC_102, NB_T5, EHC_EXT_B, EHC_EXT_A; IRAI ALL: EHC_EXT_A; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD, EHC_101, NB_T2, NB_T5; POL 152: NB_T3; ECON 154: NB_T4; RS 156: EHC_102; ENGL 158: EHC_201; HIST 152: NB_T1; ENGL 166: NB_T3; </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+COMS 156: OLD; GEOG 152: OLD; CHIN 102: NB_T2, EHC_102; CECAST COURSE: NB_T5, EHC_101, NB_T4; CAT 152: NB_T3, NB_T1; CAT 151: EHC_201; FC 182: OLD; CHIN 104: NB_T1; SOWK 156: EHC_201; RS 154: OLD; ENGL 164: EHC_EXT_B; CSM 184: EHC_EXT_A; FERF 152: OLD; LING 154: EHC_201; HIST 156: EHC_EXT_A; CSM 184: OLD; SOWK 158: NB_T4; LING 152: NB_T1, NB_R1; SOC 154: NB_R2, NB_R1; </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -436,10 +3368,10 @@
 PERIOD 2</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 152: OLD, NB_T5, EHC_201; SOWK 156: NB_T4; CAT 151: EHC_102; LING 154: NB_T2; CSM 184: EHC_101; GEOG 154: NB_T3; CAT 154: NB_T1, EHC_102, EHC_EXT_B; GEOG 156: EHC_EXT_A; CAT 152: NB_T4, EHC_EXT_B; GEOG 152: NB_T2; RS 154: EHC_101; SOC 152: NB_R2; CHIN 104: NB_R1; </t>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+LING 152: OLD; FC 182: OLD; CAT 151: OLD; GEOG 156: OLD; COMS 156: EHC_102; RS 152: NB_T1; CAT 152: NB_T3, EHC_201; RS 154: EHC_101; ENGL 166: NB_T5; CHIN 102: NB_T2, NB_T4; RS 156: NB_T5; ECON 152: EHC_201, NB_T1, NB_T5, EHC_101, OLD; POL 156: EHC_EXT_A; SOC 152: EHC_EXT_B; HIST 156: EHC_EXT_B; SOWK 156: EHC_EXT_B; FREF 156: EHC_EXT_A, NB_R2, NB_R1; GEOG 152: NB_T4; LING 154: EHC_102, OLD; </t>
         </is>
       </c>
     </row>
@@ -506,12 +3438,6 @@
 PERIOD 10</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CSM 152: OLD, NB_T1, EHC_201, NB_T4; CHIN 106: NB_T5, NB_T2, NB_T3, EHC_102; IRAI ALL: EHC_101; CECAST COURSE: EHC_101, NB_T4, EHC_EXT_B, EHC_EXT_A; ENGL 164: EHC_EXT_A; HIS 154: NB_R2; FC 182: NB_R1; COMS 152: NB_R2, EHC_EXT_A; RS 152: NB_R1; RS 156: EHC_EXT_A; SOWK 158: NB_R1, EHC_EXT_A; </t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -520,12 +3446,6 @@
 PERIOD 11</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-HIST 152: OLD; COMS 154: OLD, NB_T3, NB_T5, EHC_101; FREF 154: EHC_102; FERF 152: NB_T1; CSM 184: NB_T4; </t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -566,6 +3486,12 @@
 PERIOD 16</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 154: OLD; ENGL 152: OLD; FREF 154: EHC_201; SOC 154: NB_T1; FERF 152: EHC_102; CECAST COURSE: NB_T5, EHC_101, NB_T3; ENGL 164: NB_T4; ENGL 158: NB_T2; CHIN 104: EHC_201; COMS 152: EHC_102; CSM 184: EHC_EXT_B; MATH 154: EHC_EXT_A, NB_T4, OLD, EHC_EXT_B, EHC_201, NB_T3, NB_R1; SOWK 158: NB_R2; </t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -582,6 +3508,12 @@
 PERIOD 18</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CAT 154: OLD; CSM 152: NB_T5, EHC_102, NB_T1, NB_T3, EHC_201; IRAI ALL: NB_T4; HIST 152: EHC_101; GEOG 154: NB_T2; CSM 184: NB_T4; CHIN 106: EHC_EXT_A, EHC_201, EHC_EXT_B, EHC_101, NB_R2, NB_R1, NB_T4; </t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -590,6 +3522,12 @@
 PERIOD 19</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+COMS 154: OLD, EHC_101, NB_T3, NB_T4; HIS 154: EHC_102; POL 152: NB_T1; </t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -606,10 +3544,1789 @@
 PERIOD 21</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-COMS 156: OLD; HIST 156: OLD; FREF 156: OLD; POL 156: EHC_101; MATH 154: EHC_201, NB_T4, NB_T5, EHC_102, NB_T1; CHIN 102: NB_T2, NB_T3; POL 152: EHC_101; ENGL 152: EHC_101; ENGL 166: EHC_EXT_B; LING 152: EHC_EXT_A; ENGL 158: NB_T1; ECON 154: EHC_EXT_B, NB_R2; SOC 154: NB_R1, NB_T3; </t>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CECAST COURSE: OLD, NB_T3; GEOG 156: NB_T5; GEOG 154: EHC_201; CSM 184: NB_T1; POL 156: EHC_101; SOWK 156: EHC_102; ENGL 166: NB_T4; SOWK 158: NB_T2; CSM 184: NB_T4; SOC 154: NB_T4, EHC_101; ECON 154: EHC_EXT_A, EHC_EXT_B; HIST 156: EHC_101; CAT 151: EHC_102; CSM 152: NB_T2, EHC_EXT_B, NB_T5, EHC_102, EHC_101, NB_T3, NB_T1, NB_R2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 152: OLD; GEOG 152: OLD; CAT 154: OLD, NB_T5; CHIN 102: EHC_102, EHC_101; RS 156: NB_T3; IRAI ALL: NB_T2; SOC 152: NB_T4; MATH 154: EHC_201, NB_T1, NB_T4, NB_T3, NB_T2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 152: OLD, NB_T4, NB_T5; LING 154: EHC_102; ENGL 158: EHC_201; FC 182: NB_T1; LING 152: NB_T2; HIST 152: EHC_101; CAT 152: NB_T3, NB_T1; ENGL 164: NB_T1; HIS 154: EHC_EXT_B; COMS 152: EHC_EXT_A; FREF 154: EHC_101; CHIN 104: EHC_EXT_B; </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+COMS 154: OLD, NB_T5, EHC_101, EHC_102; FERF 152: NB_T2; RS 152: EHC_201; COMS 156: NB_T1; FREF 156: NB_T4, NB_T3; POL 152: NB_T2; CHIN 106: NB_T2, EHC_201, NB_T3, EHC_EXT_B, EHC_EXT_A; RS 154: NB_R2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 164: OLD; FREF 154: OLD; LING 152: OLD; CAT 151: OLD; COMS 156: EHC_102; LING 154: EHC_201; RS 156: NB_T4; POL 152: NB_T2; CSM 152: NB_T3, NB_T5, EHC_101, NB_T1, OLD; RS 152: NB_T2; GEOG 152: NB_T4; FC 182: NB_T2; SOWK 158: EHC_EXT_A; CHIN 106: EHC_EXT_B, OLD, NB_T2, EHC_201, NB_R2, NB_R1, NB_T4; ECON 154: EHC_102, EHC_EXT_A, NB_T4; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CAT 154: OLD; COMS 154: NB_T3, EHC_101, EHC_102, NB_T1, EHC_201; HIST 156: NB_T5; ECON 152: NB_T2, NB_T4, NB_T5, EHC_EXT_A, EHC_EXT_B; POL 156: NB_R1; ENGL 166: EHC_201; CSM 184: NB_R2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+FERF 152: OLD; COMS 152: OLD; CAT 152: OLD; MATH 154: NB_T3, NB_T4, EHC_102, NB_T2, EHC_101; SOC 152: NB_T1; RS 154: NB_T5; CECAST COURSE: EHC_201, NB_T1, NB_T5; ENGL 158: EHC_EXT_A; SOWK 156: EHC_EXT_B; HIS 154: EHC_101; CSM 184: EHC_101; HIST 152: EHC_101; CHIN 102: NB_R2, NB_R1, EHC_EXT_B, NB_T5; GEOG 154: OLD, EHC_101, NB_T5, EHC_EXT_A; </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+FREF 156: OLD; IRAI ALL: EHC_201; GEOG 156: EHC_101; SOC 154: NB_T2; ENGL 152: NB_T5; CHIN 104: NB_T3; </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CHIN 106: OLD, NB_T3, EHC_101; FREF 154: NB_T5; SOWK 156: NB_T2; FC 182: EHC_102; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CSM 184: OLD; CAT 151: OLD; HIST 152: OLD; RS 152: OLD; COMS 154: OLD, NB_T3, NB_T5, EHC_102, EHC_101; ECON 152: NB_T2, NB_T1, NB_T4, EHC_201; CECAST COURSE: EHC_101, EHC_EXT_B, EHC_EXT_A, NB_R2; LING 152: NB_R1, NB_R2; HIST 156: NB_R2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 154: OLD; ENGL 164: OLD; IRAI ALL: NB_T4; CSM 184: EHC_102; LING 154: EHC_101; CHIN 104: NB_T3; RS 154: NB_T1; CAT 154: EHC_201, NB_T5; MATH 154: NB_T2, NB_T4, NB_T1, OLD, EHC_EXT_A; CHIN 102: EHC_EXT_B, NB_T3, EHC_102; ENGL 152: NB_R1; SOWK 158: EHC_101; POL 156: NB_R2; ECON 154: NB_R2, EHC_102, EHC_101, EHC_EXT_A, NB_T5; HIS 154: NB_R1, NB_T5; </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 158: OLD; FREF 156: OLD; SOC 154: NB_T2; GEOG 156: NB_T1; SOC 152: EHC_201; POL 152: NB_T4; FERF 152: EHC_102; CAT 152: NB_T3, NB_T5; GEOG 152: EHC_101; ENGL 166: EHC_201; CSM 152: NB_T4, EHC_201, EHC_102, NB_T5, EHC_EXT_B; COMS 152: EHC_EXT_A; RS 156: NB_T1; COMS 156: EHC_101, NB_T1; </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CHIN 106: OLD, EHC_201, NB_T5; GEOG 156: NB_T4; CSM 184: EHC_102; HIST 152: NB_T2; GEOG 152: NB_T1; SOC 152: EHC_101; SOWK 156: NB_T3; ENGL 164: EHC_101; RS 152: EHC_EXT_B; CECAST COURSE: EHC_EXT_A, NB_T2, NB_T3, EHC_101; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD, EHC_102, NB_T2, NB_T3; RS 154: NB_T1; FREF 156: NB_T4, NB_T5; SOWK 158: EHC_201; COMS 152: EHC_101; POL 152: NB_T1; CHIN 104: NB_T1; ENGL 152: NB_T5; FREF 154: NB_T3; HIS 154: EHC_EXT_B; SOC 154: EHC_EXT_A, EHC_EXT_B; ENGL 158: NB_T3; HIST 156: EHC_201; IRAI ALL: EHC_EXT_B; </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+COMS 154: OLD, EHC_101, EHC_102, EHC_201; ECON 152: NB_T1, NB_T5, NB_T4, NB_T2; ENGL 166: NB_T3; LING 152: NB_T3; RS 156: EHC_EXT_A; </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CSM 152: OLD, NB_T1, EHC_201, EHC_101; CAT 154: EHC_102, NB_T4; CSM 184: NB_T3; ECON 154: NB_T5; CAT 152: NB_T2, NB_T3; COMS 156: NB_T3; CAT 151: EHC_EXT_B; GEOG 154: EHC_101, EHC_EXT_A; LING 154: EHC_EXT_B; POL 156: EHC_EXT_A; CHIN 102: NB_R2, NB_R1, EHC_EXT_A, NB_T3; FC 182: EHC_EXT_B, NB_T5; FERF 152: NB_T5; </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CECAST COURSE: OLD, NB_T3; LING 154: NB_T1; GEOG 154: NB_T5; FC 182: NB_T4; RS 154: EHC_102; RS 156: EHC_201; ENGL 166: EHC_101; ECON 154: NB_T2; FREF 156: EHC_101, EHC_201; MATH 154: EHC_102, NB_T4, EHC_EXT_B, EHC_EXT_A, EHC_201, NB_T3; POL 152: NB_T1; FREF 154: NB_R1; CSM 184: NB_R2; CAT 151: NB_T1; ENGL 158: NB_R1, NB_T1; GEOG 152: NB_R2, NB_T1; </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CSM 152: OLD, EHC_201, NB_T3, NB_T1; </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 154: OLD; IRAI ALL: OLD; HIST 156: EHC_201; SOC 152: NB_T5; CAT 152: NB_T2, NB_T3; LING 152: NB_T4; COMS 156: NB_T1; CSM 184: EHC_102; RS 152: EHC_101; GEOG 156: OLD; FERF 152: NB_T5; POL 156: NB_T3; CAT 154: NB_T5, EHC_101, EHC_201; CHIN 106: EHC_EXT_A, EHC_EXT_B, NB_T3, EHC_201, OLD, NB_R2, NB_R1; ENGL 152: EHC_102; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CHIN 102: OLD; ENGL 164: NB_T5; SOWK 156: NB_T2; COMS 152: NB_T4; SOWK 158: EHC_101; CHIN 104: EHC_102; COMS 154: EHC_201, NB_T1, NB_T3, EHC_EXT_A, EHC_EXT_B; ECON 152: NB_T2, NB_T5, EHC_101, EHC_102, NB_R1, NB_R2, NB_T4; HIST 152: OLD; HIS 154: OLD; </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+LING 154: OLD; FC 182: OLD; SOC 154: OLD; RS 152: EHC_101; ENGL 152: NB_T5; ENGL 164: EHC_102; CAT 154: EHC_201, NB_T3; POL 156: NB_T2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CSM 152: OLD, NB_T3, NB_T5, EHC_201; ENGL 166: NB_T4; GEOG 152: EHC_101; CECAST COURSE: EHC_102, NB_T2, NB_T1; FREF 154: NB_T4; COMS 156: NB_T4; CHIN 106: EHC_201, EHC_EXT_A, EHC_EXT_B, EHC_101, NB_T1, NB_R1, NB_R2; CAT 151: NB_R2; HIST 152: NB_T4; SOC 152: NB_R2; IRAI ALL: NB_R2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+LING 152: OLD; COMS 152: OLD; COMS 154: NB_T5, NB_T2, EHC_201, EHC_101, NB_T1; GEOG 156: NB_T4; CHIN 102: EHC_102, NB_T3; ENGL 158: OLD; CAT 152: EHC_EXT_A, EHC_EXT_B; SOWK 156: NB_T4; RS 156: NB_R1; FREF 156: NB_T1, NB_R2, NB_T3; SOWK 158: EHC_EXT_B; POL 152: NB_R1; RS 154: NB_R1; </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD, EHC_201, NB_T1, NB_T3; HIST 156: EHC_102; GEOG 154: NB_T5; FERF 152: NB_T2; CSM 184: EHC_101; HIS 154: NB_T4; ECON 152: NB_T4, NB_T2, EHC_102, EHC_EXT_A, NB_T3; ECON 154: EHC_EXT_B, NB_R1; CSM 184: NB_R2; CHIN 104: EHC_101; </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+POL 152: OLD; RS 154: OLD; SOC 152: OLD; RS 152: OLD; CHIN 102: OLD; FREF 156: EHC_201, EHC_101; ENGL 166: NB_T5; ENGL 152: EHC_102; ENGL 164: NB_T2; FREF 154: NB_T4; POL 156: NB_T3; CSM 152: NB_T1, NB_T5, NB_T4, NB_T3, EHC_101; GEOG 154: EHC_EXT_A, EHC_EXT_B; CAT 152: NB_T2, EHC_EXT_B; ENGL 158: EHC_102, NB_R1; FERF 152: NB_R2; GEOG 156: NB_R1; SOC 154: NB_R2, EHC_EXT_B, EHC_101; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CHIN 106: OLD, NB_T5, NB_T1; LING 154: EHC_101; CAT 154: EHC_201, NB_T3; COMS 154: NB_T2, NB_T4, EHC_102, EHC_EXT_B, EHC_EXT_A; ECON 154: NB_R2, EHC_101; </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CECAST COURSE: OLD, NB_T4; CHIN 104: NB_T2; HIST 152: NB_T1; SOWK 156: NB_T3; CSM 184: EHC_101; CAT 151: EHC_102; CSM 184: NB_T5; SOWK 158: EHC_201; IRAI ALL: EHC_102; FC 182: NB_T5; COMS 152: EHC_102; ECON 152: EHC_EXT_A, EHC_EXT_B, NB_T1, NB_T3, NB_T5, EHC_201; GEOG 152: NB_T2; COMS 156: NB_T4, NB_R1; HIST 156: EHC_101; HIS 154: NB_R2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD, NB_T3, EHC_102, NB_T4; RS 156: NB_T5; LING 152: NB_T2; </t>
         </is>
       </c>
     </row>
@@ -715,6 +5432,12 @@
 PERIOD 5</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CHIN 102: OLD; CSM 184: EHC_102; SOC 152: NB_T1; CAT 154: EHC_201, NB_T2; GEOG 152: NB_T4; HIST 156: EHC_101; ENGL 158: NB_T5; COMS 152: NB_T3; FREF 156: NB_T1, EHC_101; CAT 152: EHC_102, EHC_EXT_B; RS 154: EHC_EXT_A; CSM 152: EHC_EXT_A, EHC_101, NB_T4, EHC_EXT_B, NB_R2, NB_R1, NB_T3, NB_T5, OLD; SOWK 156: OLD; HIS 154: OLD; </t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -723,10 +5446,10 @@
 PERIOD 6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-MATH 154: OLD, NB_T2, EHC_101, NB_T3; SOWK 158: NB_T4; CHIN 104: NB_T5; FERF 152: NB_T1; CAT 151: EHC_102; IRAI ALL: EHC_201; CAT 152: NB_T1, EHC_102; GEOG 156: EHC_201; CSM 152: EHC_EXT_A, NB_T3, EHC_EXT_B, EHC_102, NB_T4, NB_T5, NB_R2; SOWK 156: NB_R1; CSM 184: EHC_201, NB_R2; </t>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 154: OLD; RS 156: OLD; FERF 152: OLD; SOC 154: NB_T4; GEOG 156: EHC_101; ENGL 164: EHC_201; POL 152: EHC_102; ENGL 152: NB_T2; MATH 154: NB_T3, NB_T5, NB_T1, EHC_102, OLD; CHIN 106: EHC_EXT_B, EHC_EXT_A, EHC_201, OLD, EHC_101, NB_T2; SOWK 158: NB_R2; </t>
         </is>
       </c>
     </row>
@@ -737,6 +5460,12 @@
 PERIOD 7</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+FC 182: OLD; COMS 156: OLD; GEOG 154: OLD; CECAST COURSE: NB_T3, EHC_101, NB_T4; LING 154: EHC_201; ENGL 166: NB_T2; ECON 152: NB_T5, EHC_102, NB_T1, NB_T2; RS 152: EHC_EXT_A; CAT 151: EHC_EXT_B; HIST 152: EHC_EXT_B; </t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -745,12 +5474,6 @@
 PERIOD 8</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 164: OLD; FREF 156: OLD; LING 152: NB_T3; GEOG 154: NB_T4; CAT 154: NB_T5, EHC_201; HIST 152: EHC_101; COMS 152: NB_T2; ECON 154: EHC_102; SOC 152: NB_T1; RS 156: NB_T1; POL 156: NB_T1; SOC 154: EHC_EXT_A, EHC_EXT_B; HIS 154: EHC_101; CHIN 102: NB_T1, EHC_101, EHC_EXT_B; ENGL 166: NB_R1; FREF 154: NB_R2; LING 154: NB_R1, NB_T2; RS 152: OLD; CSM 184: NB_T3; </t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -791,12 +5514,6 @@
 PERIOD 13</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CHIN 106: OLD, NB_T3, NB_T5; FC 182: NB_T4; GEOG 152: EHC_102; POL 152: EHC_201; COMS 156: NB_T2; CECAST COURSE: EHC_101, NB_T1, EHC_201; </t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -837,6 +5554,12 @@
 PERIOD 18</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+COMS 154: OLD, NB_T1, NB_T4, NB_T3; FREF 154: NB_T5; POL 156: NB_T2; CSM 184: EHC_201; LING 152: EHC_102; IRAI ALL: EHC_101; CHIN 104: NB_T5; </t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -859,12 +5582,6 @@
         <is>
           <t xml:space="preserve"> 
 PERIOD 21</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-COMS 154: OLD, EHC_102, NB_T1, EHC_101; ECON 152: EHC_201, NB_T3, NB_T2, NB_T4; RS 154: NB_T5; HIST 156: NB_T5; ENGL 158: EHC_EXT_A; ENGL 152: EHC_EXT_B; </t>
         </is>
       </c>
     </row>
@@ -938,6 +5655,12 @@
 PERIOD 1</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 152: OLD; CAT 152: OLD; CAT 154: NB_T2, NB_T3; SOWK 158: NB_T4; GEOG 156: EHC_201; COMS 154: EHC_101, EHC_102, NB_T1, NB_T5, OLD; HIST 156: EHC_EXT_A; FC 182: EHC_EXT_B; RS 152: NB_T4; CSM 184: EHC_EXT_A; RS 156: EHC_201; FREF 154: EHC_EXT_B; CAT 151: NB_T4; POL 152: EHC_EXT_B; SOWK 156: EHC_201; LING 152: NB_R2, EHC_EXT_B; HIS 154: NB_R1; </t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -978,12 +5701,6 @@
 PERIOD 6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-COMS 152: OLD; COMS 154: OLD, NB_T1, NB_T4, EHC_102, NB_T3; POL 152: NB_T5; SOC 154: NB_T2; FREF 154: EHC_101; IRAI ALL: EHC_201; CAT 151: NB_T5; CSM 184: NB_T3; CHIN 102: EHC_101, EHC_201; LING 152: NB_T5; ENGL 164: NB_T3; LING 154: EHC_EXT_B; RS 152: EHC_EXT_A; CSM 184: EHC_EXT_A; GEOG 154: NB_T3, NB_R2; HIS 154: NB_R1; ENGL 166: NB_R1; FC 182: NB_R1; ECON 154: NB_T5, EHC_201, NB_R1, EHC_EXT_B; </t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -992,6 +5709,12 @@
 PERIOD 7</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD, NB_T2, NB_T3, EHC_101; GEOG 152: EHC_201; GEOG 154: NB_T4; ENGL 152: EHC_102; ENGL 164: NB_T5; COMS 156: NB_T1; SOC 154: EHC_EXT_B, EHC_101; CSM 152: EHC_EXT_A, NB_T5, EHC_101, EHC_201, EHC_102, NB_R2, NB_R1, NB_T1; FERF 152: NB_T1; </t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1000,12 +5723,6 @@
 PERIOD 8</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOWK 158: OLD; HIST 152: OLD; FREF 156: OLD; GEOG 156: EHC_102; RS 154: EHC_201; ENGL 152: NB_T4; GEOG 152: NB_T5; CAT 154: NB_T3, NB_T2; COMS 156: NB_T1; CAT 152: EHC_101, EHC_201; SOWK 156: EHC_201; ENGL 158: EHC_EXT_A; SOC 152: EHC_EXT_B; CECAST COURSE: EHC_EXT_B, EHC_102, NB_T5, NB_T4, NB_R1; HIST 156: NB_R2; RS 156: EHC_201; </t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1038,6 +5755,12 @@
 PERIOD 12</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CHIN 106: OLD, EHC_201, NB_T1; CHIN 102: NB_T3, NB_T2; ENGL 158: EHC_101; ECON 154: NB_T4; IRAI ALL: EHC_102; FREF 156: NB_T5, EHC_102; HIST 152: EHC_EXT_A; LING 154: EHC_EXT_B; ENGL 166: EHC_102; RS 154: EHC_102; CHIN 104: NB_R1; CECAST COURSE: NB_R2, EHC_102, EHC_EXT_A, EHC_101, NB_T2, EHC_EXT_B; POL 156: EHC_EXT_B, NB_T4; CSM 184: NB_R1, NB_T4; </t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1046,12 +5769,6 @@
 PERIOD 13</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CSM 152: OLD, NB_T3, EHC_101, NB_T4; CHIN 104: NB_T2; FERF 152: EHC_102; POL 156: NB_T1; </t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1084,10 +5801,10 @@
 PERIOD 17</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CHIN 106: OLD, NB_T3, EHC_101; MATH 154: NB_T4, NB_T1, EHC_201, NB_T5, EHC_102; ECON 152: NB_T2, EHC_EXT_B, EHC_EXT_A, EHC_102, NB_R1, NB_R2; </t>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+COMS 152: OLD; ECON 152: OLD, EHC_201, EHC_101, NB_T1; </t>
         </is>
       </c>
     </row>
@@ -1217,6 +5934,12 @@
 PERIOD 4</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+FREF 156: OLD; CHIN 102: NB_T3, EHC_102; RS 156: NB_T1; CECAST COURSE: EHC_201, NB_T2, NB_T4; CSM 152: EHC_101, NB_T5, NB_T1, OLD, EHC_EXT_A; CSM 184: EHC_EXT_B; SOWK 158: EHC_EXT_B; </t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1225,12 +5948,6 @@
 PERIOD 5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CHIN 104: OLD; LING 154: OLD; SOC 152: OLD; CHIN 106: OLD, NB_T2, NB_T1, NB_T5; GEOG 156: EHC_201; ENGL 152: NB_T3; MATH 154: EHC_102, NB_T4, EHC_101, EHC_EXT_A, EHC_EXT_B; RS 152: EHC_201; HIS 154: NB_T3; SOWK 158: NB_R2; </t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1255,6 +5972,12 @@
 PERIOD 8</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD, NB_T1, NB_T4, EHC_102; CAT 154: NB_T2, EHC_101; CHIN 104: NB_T3; ECON 152: EHC_201, NB_T5, EHC_102, EHC_EXT_B, EHC_EXT_A; ENGL 166: NB_T3; POL 156: NB_T3; HIST 156: NB_R1; SOC 152: NB_R2; IRAI ALL: NB_R2; ECON 154: NB_T3, NB_R2, NB_R1; </t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1295,12 +6018,6 @@
 PERIOD 13</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CAT 154: OLD; HIST 152: NB_T4; CECAST COURSE: EHC_102, EHC_101, NB_T5; RS 154: NB_T1; CSM 184: NB_T3; GEOG 152: NB_T2; </t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1309,6 +6026,12 @@
 PERIOD 14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+COMS 154: OLD, NB_T5, EHC_101, NB_T3; COMS 152: NB_T1; LING 154: NB_T2; FC 182: EHC_102; ENGL 152: EHC_201; GEOG 152: NB_T4; ENGL 158: EHC_102; CAT 152: EHC_EXT_A, EHC_EXT_B; </t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1325,12 +6048,6 @@
 PERIOD 16</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 152: OLD, NB_T5, EHC_201; FREF 154: EHC_102; POL 156: NB_T4; FC 182: NB_T1; IRAI ALL: NB_T3; POL 152: NB_T2; COMS 152: EHC_101; FERF 152: NB_T2; HIST 156: EHC_102; COMS 156: NB_T3; RS 156: NB_T2; SOWK 156: NB_T1; ENGL 164: NB_T4; FREF 156: NB_T2, EHC_102; ECON 154: EHC_EXT_B, EHC_EXT_A; SOC 154: EHC_EXT_A, NB_T1; CAT 152: NB_T4, NB_R2, NB_R1; LING 152: EHC_101, NB_R1; </t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1339,10 +6056,10 @@
 PERIOD 17</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CSM 152: OLD, NB_T2, NB_T4, EHC_101; GEOG 154: NB_T1; ENGL 158: EHC_201; COMS 154: NB_T3, NB_T5, EHC_102, EHC_101, EHC_EXT_A; ENGL 166: EHC_EXT_B; CAT 151: EHC_EXT_B; CSM 184: EHC_EXT_B; CHIN 102: NB_R2, NB_R1, EHC_201, NB_T1; </t>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+RS 152: OLD; FERF 152: OLD; ENGL 164: OLD; POL 152: OLD; FREF 154: OLD; HIS 154: OLD; CAT 151: OLD; GEOG 156: OLD; CSM 184: NB_T5; CHIN 106: NB_T4, EHC_101, NB_T1, NB_T2; SOC 154: EHC_201; LING 152: NB_T3; HIST 152: EHC_102; GEOG 154: OLD; RS 154: EHC_EXT_A; SOWK 156: EHC_EXT_B; COMS 156: EHC_102; </t>
         </is>
       </c>
     </row>
@@ -1448,12 +6165,6 @@
 PERIOD 1</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CAT 151: OLD; GEOG 156: OLD; ENGL 164: OLD; SOWK 158: OLD; SOWK 156: NB_T2; COMS 154: NB_T1, NB_T3, EHC_201, EHC_102, NB_T4; CSM 184: EHC_101; ENGL 166: NB_T5; POL 152: NB_T5; HIS 154: NB_T5; ECON 154: NB_T5; SOC 152: OLD; LING 152: OLD; CECAST COURSE: EHC_EXT_A, EHC_EXT_B, NB_T2, NB_R2; RS 154: NB_T4; HIST 152: NB_R1; COMS 152: EHC_101, NB_T4; </t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1486,10 +6197,10 @@
 PERIOD 5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 152: OLD, NB_T1, EHC_102; CSM 152: NB_T4, NB_T2, NB_T5, EHC_101, NB_T3; CAT 154: EHC_201, EHC_EXT_A, NB_T3; CHIN 102: EHC_EXT_B, NB_T3, NB_R1; GEOG 152: NB_R2; </t>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CAT 154: OLD; CSM 152: NB_T1, EHC_101, EHC_201, NB_T5, NB_T4; SOC 152: EHC_102; ENGL 158: NB_T2; SOWK 156: NB_T3; CHIN 106: EHC_102, EHC_EXT_A, EHC_EXT_B, NB_T4, NB_T3, NB_R1; ENGL 166: NB_R2; </t>
         </is>
       </c>
     </row>
@@ -1508,6 +6219,12 @@
 PERIOD 7</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 154: OLD; CAT 151: OLD; FERF 152: OLD; CHIN 104: NB_T2; CSM 184: EHC_102; IRAI ALL: NB_T1; GEOG 152: EHC_101; FREF 154: NB_T3; HIST 156: EHC_201; CECAST COURSE: NB_T5, NB_T4, OLD; POL 156: NB_T3; LING 154: NB_T1; </t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1564,6 +6281,12 @@
 PERIOD 14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+COMS 154: OLD, NB_T2, EHC_101, NB_T1; FREF 156: NB_T5, NB_T3; HIS 154: EHC_102; RS 154: EHC_201; ENGL 152: NB_T4; RS 152: EHC_102; GEOG 154: EHC_201; COMS 156: EHC_102; CAT 152: NB_T3, EHC_EXT_B; POL 152: EHC_EXT_A; RS 156: EHC_EXT_A; CHIN 102: EHC_EXT_A, NB_T4, NB_T1; SOC 154: NB_R2, NB_R1; </t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1596,12 +6319,6 @@
 PERIOD 18</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-FREF 156: OLD; FC 182: EHC_102; CSM 184: EHC_101; ENGL 152: NB_T5; CAT 152: NB_T1, NB_T4; POL 156: EHC_201; ENGL 158: NB_T3; HIST 156: NB_T2; RS 156: NB_T4; FERF 152: NB_T2; GEOG 154: EHC_101, EHC_102; MATH 154: EHC_102, NB_T4, EHC_201, NB_T2, OLD, EHC_EXT_B; COMS 156: EHC_EXT_A; LING 154: NB_T5; FREF 154: NB_R2; </t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1610,12 +6327,6 @@
 PERIOD 19</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CHIN 104: OLD; CHIN 106: OLD, EHC_101, EHC_201, EHC_102; IRAI ALL: NB_T2; SOC 154: NB_T5; RS 152: NB_T4; </t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1630,6 +6341,12 @@
         <is>
           <t xml:space="preserve"> 
 PERIOD 21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD, EHC_201, NB_T4, EHC_101; CSM 184: NB_T1; HIST 152: NB_T2; FC 182: NB_T3; SOWK 158: EHC_102; ENGL 164: NB_T5; ECON 152: NB_T1, NB_T3, EHC_EXT_A, EHC_101, EHC_EXT_B, NB_T2; COMS 152: NB_T2; LING 152: NB_T5; GEOG 156: EHC_102; </t>
         </is>
       </c>
     </row>
@@ -1711,12 +6428,6 @@
 PERIOD 2</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-COMS 154: OLD, NB_T1, EHC_201, NB_T4; CAT 154: NB_T2, NB_T3; ENGL 152: EHC_101; ECON 154: EHC_102; FREF 154: NB_T5; CSM 184: NB_T5; RS 156: EHC_EXT_A; SOWK 158: EHC_EXT_B; CECAST COURSE: EHC_EXT_A, EHC_101, NB_T4, NB_R2, NB_R1; RS 152: NB_T5; SOC 152: EHC_EXT_B; RS 154: EHC_EXT_B; GEOG 154: NB_T5, EHC_EXT_B, NB_R1, EHC_102; </t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1725,12 +6436,6 @@
 PERIOD 3</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-MATH 154: OLD, NB_T1, EHC_102, EHC_201; LING 152: NB_T2; CAT 151: EHC_101; HIST 156: NB_T5; CHIN 102: NB_T4, NB_T3; FREF 156: EHC_101, NB_T5; ENGL 166: EHC_EXT_B; CAT 152: EHC_201, EHC_EXT_A; SOWK 156: EHC_EXT_B; POL 152: NB_T5; POL 156: NB_R2; COMS 156: NB_R1, NB_T5; GEOG 156: NB_T3; CSM 184: NB_T2; CHIN 104: EHC_EXT_B; </t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1763,6 +6468,12 @@
 PERIOD 7</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD, EHC_102, NB_T5, NB_T1; FERF 152: NB_T3; HIST 156: NB_T2; SOC 154: EHC_101; </t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1779,6 +6490,12 @@
 PERIOD 9</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+LING 154: OLD; COMS 154: OLD, EHC_101, NB_T4, NB_T5; CHIN 102: NB_T1, EHC_102; RS 154: EHC_201; CSM 152: NB_T2, NB_T3, EHC_201, EHC_EXT_A, EHC_EXT_B; ENGL 166: NB_R1; SOC 152: NB_R2; CSM 184: NB_R2, NB_R1; FREF 154: EHC_102; POL 152: NB_R1; </t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1811,10 +6528,10 @@
 PERIOD 13</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 152: OLD, NB_T4, EHC_101; ENGL 164: NB_T1; SOC 154: NB_T3; HIS 154: EHC_102; FERF 152: NB_T5; ENGL 158: NB_T2; HIST 152: EHC_201; LING 154: EHC_102; FC 182: NB_T5; CHIN 106: NB_T5, EHC_EXT_A, EHC_EXT_B, EHC_201, NB_T1, NB_R1; GEOG 152: NB_R2; COMS 152: NB_T2, EHC_102; IRAI ALL: EHC_102; </t>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CAT 154: OLD; HIST 152: NB_T1; CSM 184: NB_T3; GEOG 152: NB_T5; GEOG 156: EHC_101; COMS 156: EHC_201; CHIN 104: EHC_102; CECAST COURSE: NB_T2, NB_T4, NB_T3; ENGL 164: EHC_EXT_B; FREF 156: EHC_EXT_A, NB_T1; ECON 154: EHC_101, EHC_102; LING 152: NB_T5; FC 182: NB_R1; SOWK 158: NB_R2; SOWK 156: EHC_EXT_B; IRAI ALL: EHC_201; RS 156: NB_T3; </t>
         </is>
       </c>
     </row>
@@ -1825,12 +6542,6 @@
 PERIOD 14</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CSM 152: OLD, NB_T3, EHC_201, NB_T4; </t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1855,6 +6566,12 @@
 PERIOD 17</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CAT 152: OLD; POL 156: NB_T1; COMS 152: NB_T3; ENGL 158: EHC_201; CAT 151: EHC_102; HIS 154: NB_T5; ENGL 152: NB_T2; GEOG 154: NB_T4; CHIN 106: EHC_101, NB_T5, OLD, EHC_102, NB_T1; RS 152: EHC_EXT_B; ECON 152: EHC_EXT_A, EHC_EXT_B, NB_T1, NB_T2, NB_R1, NB_R2, NB_T3; </t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1877,6 +6594,516 @@
         <is>
           <t xml:space="preserve"> 
 PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+COMS 154: OLD, EHC_101, NB_T5, NB_T2; FREF 154: EHC_102; CAT 154: NB_T4, EHC_201; CHIN 106: NB_T1, NB_T3, EHC_102, EHC_EXT_B, EHC_EXT_A; CHIN 102: NB_R1, NB_R2, NB_T2, EHC_EXT_A; ENGL 166: EHC_EXT_A; </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 154: OLD; CAT 152: OLD; SOWK 156: NB_T1; ECON 154: EHC_101; HIST 156: NB_T5; RS 156: NB_T2; RS 154: EHC_201; SOC 152: NB_T3; IRAI ALL: NB_T4; GEOG 152: EHC_102; FREF 156: NB_T3, NB_T2; LING 152: NB_T4; CSM 184: NB_T5; ENGL 152: EHC_201; CHIN 104: EHC_EXT_A; LING 154: EHC_EXT_B; COMS 152: NB_T1; ECON 152: NB_T2, EHC_102, NB_R1, NB_R2, EHC_201, NB_T5, EHC_EXT_A, NB_T4, EHC_EXT_B, NB_T1; CAT 151: EHC_101; POL 152: NB_T1; </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+COMS 156: OLD; CECAST COURSE: OLD, EHC_201, NB_T3; ENGL 158: NB_T1; SOWK 158: EHC_102; FERF 152: NB_T5; CSM 184: NB_T2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 152: OLD; HIS 154: OLD; POL 156: OLD; ENGL 164: OLD; FC 182: OLD; CSM 152: OLD, NB_T1, NB_T4, NB_T2, NB_T3; RS 152: EHC_102; MATH 154: NB_T5, EHC_201, EHC_101, EHC_102, NB_T3; GEOG 154: EHC_EXT_A, EHC_EXT_B; GEOG 156: EHC_EXT_B; </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 152: OLD; POL 152: OLD; ENGL 158: OLD; ECON 152: NB_T3, EHC_102, NB_T2, EHC_101; FREF 154: EHC_201; SOWK 158: NB_T4; HIS 154: NB_T5; RS 152: NB_T1; CSM 184: OLD; CECAST COURSE: NB_T5, EHC_201, NB_T1; ENGL 152: EHC_EXT_A; </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 154: OLD; CHIN 106: OLD, EHC_102, NB_T5, NB_T4; RS 156: NB_T3; FREF 156: EHC_101, NB_T1; SOC 152: NB_T2; RS 154: EHC_201; LING 152: NB_T2; COMS 152: NB_T3; FC 182: EHC_201; </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CAT 154: OLD; FERF 152: NB_T1; IRAI ALL: EHC_201; COMS 156: NB_T3; SOC 154: EHC_102; LING 154: EHC_101; HIST 152: NB_T4; CSM 152: NB_T5, NB_T2, NB_T1, EHC_201, EHC_EXT_A; CAT 152: EHC_EXT_B, NB_T4; CAT 151: EHC_101; GEOG 154: NB_R1, NB_R2; CHIN 102: NB_T3, EHC_101, NB_T4, EHC_EXT_A, NB_R2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD, NB_T4, NB_T3, EHC_102; POL 156: NB_T5; ENGL 164: EHC_201; COMS 154: NB_T2, NB_T1, EHC_101, NB_T5, EHC_102; GEOG 156: EHC_EXT_B; CHIN 104: EHC_EXT_A; HIST 156: EHC_201; CSM 184: EHC_201; SOWK 156: NB_R1; ENGL 166: NB_R2; </t>
         </is>
       </c>
     </row>

--- a/data/Chromosome_data.xlsx
+++ b/data/Chromosome_data.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Chromosome 0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Chromosome 1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Chromosome 2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -346,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -358,75 +360,115 @@
       <c r="A1" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-2020-06-05 00:00:00</t>
+2020-07-05 00:00:002020-07-05 00:00:002020-07-05 00:00:00</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-2020-04-05 00:00:00</t>
+2020-06-05 00:00:002020-06-05 00:00:002020-06-05 00:00:00</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-2020-09-05 00:00:00</t>
+2020-10-05 00:00:002020-10-05 00:00:002020-10-05 00:00:00</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-2020-10-05 00:00:00</t>
+2020-04-05 00:00:002020-04-05 00:00:002020-04-05 00:00:00</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-2020-08-05 00:00:00</t>
+2020-08-05 00:00:002020-08-05 00:00:002020-08-05 00:00:00</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-2020-07-05 00:00:00</t>
+2020-09-05 00:00:002020-09-05 00:00:002020-09-05 00:00:00</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-2020-05-05 00:00:00</t>
+2020-05-05 00:00:002020-05-05 00:00:002020-05-05 00:00:00</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-29 OLD12 OLD1 OLD7 NB_T427 NB_T39 EHC_10224 NB_T510 NB_T2EHC_101NB_T1EHC_201EHC_EXT_A33 EHC_EXT_B11 NB_T323 EHC_EXT_B15 EHC_EXT_A30 NB_R214 NB_R1NB_T4</t>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+8 OLDNB_T3EHC_201EHC_1019 NB_T110 EHC_102NB_T5NB_T2NB_T4EHC_EXT_A11 EHC_EXT_B11 EHC_101</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-13 OLDEHC_201NB_T22 NB_T3NB_T537 NB_T13 NB_T4EHC_102EHC_10132 NB_T1</t>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+8 OLDNB_T1EHC_201NB_T49 NB_T310 NB_T2NB_T5EHC_101EHC_102EHC_EXT_B11 EHC_EXT_A11 NB_R1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+13 OLDNB_T5NB_T314 EHC_20115 EHC_10116 NB_T117 NB_T418 EHC_10219 NB_T220 EHC_10221 EHC_10222 NB_T2EHC_10223 EHC_EXT_B24 EHC_EXT_ANB_T425 NB_T426 EHC_10127 NB_R128 NB_R229 EHC_101NB_T130 EHC_102NB_T1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+1 OLD2 NB_T4EHC_1023 NB_T3EHC_201NB_T24 EHC_101NB_T55 NB_T16 OLDEHC_EXT_BEHC_EXT_ANB_T1NB_T2NB_R17 NB_R2NB_T58 OLDNB_T3NB_T2NB_T59 EHC_10210 EHC_101NB_T1EHC_201NB_T4EHC_EXT_A11 EHC_EXT_B11 NB_R1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+13 OLDNB_T4EHC_20114 EHC_10115 EHC_10216 NB_T117 NB_T218 NB_T319 NB_T520 NB_T321 NB_T322 NB_T5NB_T323 EHC_EXT_B24 EHC_EXT_ANB_T225 NB_T226 EHC_10227 NB_R228 NB_R129 EHC_102NB_T130 NB_T3NB_T1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+1 OLD2 EHC_101NB_T13 EHC_102NB_T2EHC_2014 NB_T5NB_T45 NB_T36 OLDEHC_EXT_AEHC_EXT_BNB_T3EHC_201NB_R17 NB_R2NB_T4</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-8 OLDEHC_201NB_T3EHC_10221 NB_T138 NB_T436 EHC_10125 NB_T242 NB_T519 NB_T122 EHC_101NB_T5</t>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+31 OLDNB_T2NB_T3NB_T532 EHC_20133 EHC_10234 NB_T435 NB_T136 EHC_10137 EHC_20138 EHC_20139 EHC_10140 NB_T4</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-35 OLD6 OLDEHC_102NB_T4EHC_20134 NB_T331 NB_T2EHC_101NB_T1NB_T5NB_T326 EHC_20120 EHC_20140 EHC_EXT_B16 EHC_EXT_A4 EHC_201NB_T3NB_R217 NB_R118 EHC_EXT_B41 EHC_EXT_B5 NB_R2EHC_EXT_B28 EHC_EXT_A39 NB_R1EHC_EXT_B</t>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+31 OLDNB_T2EHC_201EHC_10232 NB_T433 NB_T334 EHC_10135 NB_T536 NB_T137 NB_T438 NB_T439 NB_T140 EHC_10131 OLDEHC_201NB_T3EHC_10232 NB_T433 NB_T234 EHC_10135 NB_T536 NB_T137 NB_T438 NB_T439 NB_T140 EHC_101</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+13 OLDNB_T2EHC_10114 EHC_10215 NB_T416 NB_T517 NB_T318 NB_T119 EHC_20120 NB_T121 NB_T122 EHC_201NB_T123 EHC_EXT_B24 EHC_EXT_ANB_T325 NB_T326 NB_T427 NB_R228 NB_R129 NB_T4NB_T530 NB_T1NB_T51 OLD2 NB_T3EHC_2013 NB_T2NB_T4NB_T14 EHC_101NB_T55 EHC_1026 OLDEHC_EXT_BEHC_EXT_AEHC_102NB_T1NB_R17 NB_R2NB_T5</t>
         </is>
       </c>
     </row>
@@ -451,4 +493,40 @@
   <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/data/Chromosome_data.xlsx
+++ b/data/Chromosome_data.xlsx
@@ -11,6 +11,23 @@
     <sheet name="Chromosome 1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Chromosome 2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Chromosome 3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Chromosome 4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Chromosome 5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Chromosome 6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Chromosome 7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Chromosome 8" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Chromosome 9" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Chromosome 10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Chromosome 11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Chromosome 12" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Chromosome 13" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Chromosome 14" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Chromosome 15" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Chromosome 16" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Chromosome 17" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Chromosome 18" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Chromosome 19" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Chromosome 20" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -348,7 +365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -376,10 +393,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -390,10 +407,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -404,10 +421,2978 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>46</v>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>51</v>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>50</v>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>45</v>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>54</v>
+      </c>
+      <c r="C9" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>49</v>
+      </c>
+      <c r="C10" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>45</v>
+      </c>
+      <c r="C11" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>54</v>
+      </c>
+      <c r="C12" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>53</v>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>50</v>
+      </c>
+      <c r="C14" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>51</v>
+      </c>
+      <c r="C15" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>51</v>
+      </c>
+      <c r="C16" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>48</v>
+      </c>
+      <c r="C17" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>46</v>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>50</v>
+      </c>
+      <c r="C19" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>49</v>
+      </c>
+      <c r="C20" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>44</v>
+      </c>
+      <c r="C21" t="n">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 364: OLD; ENGL 468: NB_T3; SOC 456: NB_T5; ECON 254: NB_T4, EHC_101, EHC_201, NB_T1; ENGL 152: EHC_102, NB_T2; GEOG 358: NB_T3; </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 360: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; SOC 456: NB_T2; HIST 256: NB_T4; CSM 184: NB_T3, NB_T5, NB_T1; GEOG 356: NB_T2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 366: OLD; ENGL 470: OLD; SOC 458: OLD; FREN 262: NB_T4; GEOG 152: EHC_201; GEOG 360: NB_T3; </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 354: OLD; ENGL 454: OLD; SOC 452: OLD; CAT 256: OLD, NB_T3, NB_T4, NB_T2, NB_T5; CHIN 102: EHC_201, EHC_101; GEOG 352: EHC_102; </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 356: OLD; ENGL 456: OLD; SOC 454: OLD; POL 254: OLD; COMS 152: NB_T2, NB_T3; GEOG 354: NB_T1; </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOWK 260: OLD; HIST 152: OLD, EHC_102, NB_T3, EHC_201; </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GLAK 262: OLD; MATH 154: OLD; </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 458: OLD; FREN 262: OLD; ECON 366: NB_T1; GEOG 152: EHC_201; ENGL 470: NB_T3; GEOG 360: EHC_102; </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: OLD; ECON 254: OLD, NB_T4, NB_T1, EHC_102; ECON 364: NB_T2, EHC_201; ENGL 152: NB_T5, EHC_101; ENGL 468: NB_T3; GEOG 358: NB_T3; </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 454: OLD; POL 254: OLD; ECON 356: OLD; COMS 152: OLD, NB_T1; ENGL 456: NB_T4; GEOG 354: NB_T3; </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOWK 260: OLD; HIST 152: OLD, NB_T5, NB_T1, NB_T3; </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GLAK 262: OLD; MATH 154: OLD; </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 452: OLD; CAT 256: OLD, NB_T2, EHC_102, NB_T3; ECON 354: EHC_101; CHIN 102: NB_T5, NB_T4; ENGL 454: NB_T1; GEOG 352: EHC_201; </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: OLD; HIST 256: OLD; ECON 360: OLD; CSM 184: OLD, NB_T1; ENGL 458: EHC_102, EHC_201, NB_T2, NB_T3, NB_T4; GEOG 356: NB_T5; </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+COMS 152: OLD; ENGL 456: EHC_102; POL 254: NB_T1; ECON 356: NB_T4; SOC 454: NB_T3; GEOG 354: EHC_201; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CSM 184: OLD, EHC_101; ENGL 458: EHC_102, EHC_201, NB_T5, NB_T2, NB_T3; HIST 256: NB_T1; ECON 360: NB_T4; SOC 456: NB_T4; GEOG 356: NB_T1; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CHIN 102: OLD; ENGL 454: NB_T2; CAT 256: EHC_201, NB_T1, EHC_101, NB_T5, NB_T4; ECON 354: EHC_102; SOC 452: NB_T3; GEOG 352: OLD; </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 152: OLD, NB_T5, NB_T4; SOWK 260: NB_T2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD; GLAK 262: OLD; </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 152: OLD; ENGL 468: NB_T2; ECON 254: EHC_101, NB_T1, NB_T5, NB_T3; ECON 364: EHC_201, NB_T4; SOC 456: EHC_102; GEOG 358: NB_T2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 152: OLD; ENGL 470: OLD; FREN 262: OLD; ECON 366: NB_T2; SOC 458: EHC_102; GEOG 360: NB_T3; </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 454: OLD; ENGL 456: OLD; ECON 356: OLD; COMS 152: OLD, NB_T1; POL 254: EHC_201; GEOG 354: EHC_102; </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 152: OLD, NB_T5, NB_T3; SOWK 260: EHC_102; </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD; GLAK 262: OLD; </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: OLD; ENGL 468: OLD; ECON 364: OLD; ENGL 152: EHC_101, NB_T5; ECON 254: NB_T4, EHC_102, NB_T1, NB_T2; GEOG 358: EHC_201; </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 452: OLD; ENGL 454: OLD; ECON 354: OLD; CHIN 102: OLD; CAT 256: NB_T1, EHC_102, NB_T5, NB_T2, NB_T4; GEOG 352: EHC_101; </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 458: OLD; ENGL 470: OLD; ECON 366: EHC_201; GEOG 152: NB_T1; FREN 262: EHC_101; GEOG 360: EHC_102; </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: OLD; ENGL 458: OLD, EHC_101, NB_T5, EHC_102; ECON 360: NB_T4; CSM 184: EHC_201, NB_T1, NB_T3; HIST 256: NB_T2; GEOG 356: NB_T4; </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD; GLAK 262: OLD; </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 366: OLD; GEOG 360: OLD; GEOG 152: OLD; ENGL 470: OLD; SOC 458: NB_T1; FREN 262: NB_T4; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 354: OLD; GEOG 352: OLD; CHIN 102: EHC_201, EHC_101; ENGL 454: NB_T4; SOC 452: EHC_102; CAT 256: NB_T1, NB_T2, NB_T3, NB_T5, OLD; </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 356: OLD; GEOG 354: OLD; COMS 152: OLD, NB_T1; ENGL 456: EHC_101; SOC 454: NB_T5; POL 254: EHC_102; </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 364: OLD; GEOG 358: NB_T2; ENGL 152: EHC_101, NB_T5; ENGL 468: NB_T3; SOC 456: EHC_102; ECON 254: EHC_201, NB_T4, NB_T1, NB_T3; </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 152: OLD, EHC_201, NB_T5; SOWK 260: NB_T2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 360: OLD; GEOG 356: OLD; CSM 184: OLD, NB_T2; ENGL 458: NB_T4, NB_T1, EHC_101, NB_T5, EHC_102; SOC 456: NB_T3; HIST 256: EHC_201; </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 354: OLD; COMS 152: OLD, EHC_101; SOC 454: NB_T1; ECON 356: NB_T5; ENGL 456: NB_T3; POL 254: EHC_201; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 360: OLD; GEOG 152: OLD; SOC 458: OLD; ECON 366: NB_T3; ENGL 470: NB_T1; FREN 262: NB_T2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD; GLAK 262: OLD; </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 356: OLD; CSM 184: OLD, NB_T3; SOC 456: NB_T2; ECON 360: EHC_102; ENGL 458: NB_T4, NB_T5, EHC_201, EHC_101, NB_T1; HIST 256: EHC_102; </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 152: OLD, NB_T4, EHC_201; SOWK 260: NB_T5; </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 358: OLD; ENGL 152: OLD; SOC 456: EHC_201; ECON 364: NB_T1, NB_T5; ENGL 468: NB_T3; ECON 254: EHC_102, NB_T2, NB_T4, EHC_101; </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 352: OLD; CHIN 102: OLD; SOC 452: NB_T2; ECON 354: EHC_102; ENGL 454: NB_T3; CAT 256: EHC_201, NB_T5, EHC_101, NB_T4, NB_T1; </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: OLD; ENGL 152: OLD; GEOG 358: NB_T1; ECON 254: NB_T4, NB_T3, NB_T2, EHC_101; ENGL 468: NB_T5; ECON 364: EHC_201, EHC_102; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: OLD; CSM 184: OLD, NB_T1; GEOG 356: EHC_102; HIST 256: NB_T5; ENGL 458: NB_T2, EHC_201, EHC_101, NB_T3, NB_T4; ECON 360: EHC_102; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD; GLAK 262: OLD; </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 452: OLD; CHIN 102: OLD; GEOG 352: EHC_102; CAT 256: EHC_101, NB_T4, EHC_201, NB_T1, NB_T5; ENGL 454: NB_T3; ECON 354: NB_T2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 454: OLD; COMS 152: OLD, EHC_201; GEOG 354: NB_T2; POL 254: NB_T4; ENGL 456: EHC_101; ECON 356: NB_T5; </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 152: OLD, NB_T3, NB_T1; SOWK 260: NB_T5; </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 458: OLD; GEOG 152: OLD; GEOG 360: NB_T2; FREN 262: NB_T3; ENGL 470: NB_T4; ECON 366: NB_T1; </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 360: OLD; SOC 458: OLD; ENGL 470: NB_T2; GEOG 152: NB_T1; ECON 366: NB_T4; FREN 262: EHC_101; </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 352: OLD; SOC 452: OLD; ENGL 454: OLD; CHIN 102: EHC_101, NB_T4; ECON 354: EHC_102; CAT 256: NB_T5, NB_T3, NB_T2, NB_T1, EHC_201; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 152: OLD, NB_T2, EHC_101; SOWK 260: EHC_102; </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD; GLAK 262: OLD; </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 356: OLD; SOC 456: OLD; ENGL 458: OLD, NB_T2, NB_T4, NB_T5; CSM 184: NB_T3, EHC_102, EHC_101; ECON 360: NB_T1; HIST 256: EHC_201; </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 358: OLD; SOC 456: OLD; ENGL 468: OLD; ENGL 152: OLD; ECON 364: NB_T5, NB_T2; ECON 254: NB_T3, EHC_101, EHC_102, EHC_201; </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 354: OLD; SOC 454: OLD; ENGL 456: OLD; COMS 152: EHC_201, EHC_102; ECON 356: NB_T5; POL 254: NB_T3; </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 256: OLD; ENGL 458: OLD, NB_T4, EHC_101, NB_T3; SOC 456: EHC_102; ECON 360: NB_T5; CSM 184: NB_T1, NB_T2, EHC_201; GEOG 356: NB_T5; </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CAT 256: OLD, EHC_102, EHC_201, NB_T5; ENGL 454: NB_T3; SOC 452: EHC_101; ECON 354: NB_T4; CHIN 102: NB_T2, NB_T1; GEOG 352: NB_T1; </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOWK 260: OLD; HIST 152: OLD, EHC_201, NB_T1, NB_T2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 254: OLD, NB_T5, NB_T3; ENGL 468: NB_T2; SOC 456: EHC_201; ECON 364: EHC_102, NB_T1; ENGL 152: NB_T4, EHC_101; GEOG 358: NB_T2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+FREN 262: OLD; ENGL 470: OLD; SOC 458: EHC_101; ECON 366: NB_T3; GEOG 152: NB_T2; GEOG 360: NB_T1; </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GLAK 262: OLD; MATH 154: OLD; </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+POL 254: OLD; ENGL 456: OLD; SOC 454: EHC_201; ECON 356: OLD; COMS 152: EHC_101, NB_T1; GEOG 354: NB_T4; </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 364: OLD; ECON 254: NB_T4, NB_T3, NB_T5, EHC_102; GEOG 358: EHC_201; ENGL 468: NB_T1; ENGL 152: NB_T2, EHC_101; SOC 456: NB_T1; </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GLAK 262: OLD; MATH 154: OLD; </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 354: OLD; CAT 256: OLD, EHC_201, NB_T5, EHC_102; GEOG 352: NB_T1; ENGL 454: NB_T3; CHIN 102: EHC_101, NB_T4; SOC 452: NB_T2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 366: OLD; FREN 262: OLD; GEOG 360: NB_T5; ENGL 470: NB_T3; GEOG 152: NB_T2; SOC 458: NB_T1; </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 360: OLD; HIST 256: OLD; GEOG 356: OLD; ENGL 458: OLD, NB_T3, NB_T1, NB_T4; CSM 184: EHC_201, EHC_101, NB_T5; SOC 456: EHC_102; </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 356: OLD; POL 254: OLD; GEOG 354: OLD; ENGL 456: OLD; COMS 152: NB_T2, NB_T1; SOC 454: EHC_101; </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOWK 260: OLD; HIST 152: OLD, NB_T2, NB_T4, EHC_201; </t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -488,12 +3473,6 @@
 PERIOD 2</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CAT 154</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -502,6 +3481,12 @@
 PERIOD 3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 360: OLD; CSM 184: OLD, NB_T1; SOC 456: NB_T2; HIST 256: EHC_201; ENGL 458: EHC_101, NB_T3, NB_T5, EHC_102, NB_T4; GEOG 356: NB_T2; </t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -510,12 +3495,6 @@
 PERIOD 4</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-IRAI ALLIRAI ALLIRAI ALLIRAI ALLIRAI ALLIRAI ALLIRAI ALLIRAI ALLIRAI ALLIRAI ALLCAT 152</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -524,6 +3503,12 @@
 PERIOD 5</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD; GLAK 262: OLD; </t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -559,7 +3544,7 @@
       <c r="D10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CHIN 104</t>
+ECON 364: OLD; ENGL 152: NB_T3, EHC_201; SOC 456: NB_T1; ECON 254: EHC_102, EHC_101, NB_T4, NB_T5; ENGL 468: NB_T2; GEOG 358: NB_T2; </t>
         </is>
       </c>
     </row>
@@ -570,10 +3555,10 @@
 PERIOD 10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CHIN 106</t>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 354: OLD; CHIN 102: OLD; SOC 452: NB_T1; CAT 256: NB_T2, EHC_102, NB_T4, EHC_101, NB_T5; ENGL 454: NB_T3; GEOG 352: EHC_201; </t>
         </is>
       </c>
     </row>
@@ -608,6 +3593,12 @@
 PERIOD 14</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 152: OLD, NB_T2, NB_T5; SOWK 260: EHC_201; </t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -616,12 +3607,6 @@
 PERIOD 15</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CHIN 102</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -630,12 +3615,6 @@
 PERIOD 16</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-COMS 152</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -652,6 +3631,12 @@
 PERIOD 18</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 356: OLD; COMS 152: OLD, NB_T2; SOC 454: EHC_102; POL 254: NB_T4; ENGL 456: EHC_101; GEOG 354: EHC_201; </t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -668,10 +3653,10 @@
 PERIOD 20</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CECAST COURSE</t>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 366: OLD; GEOG 152: OLD; SOC 458: OLD; FREN 262: EHC_101; ENGL 470: NB_T1; GEOG 360: NB_T4; </t>
         </is>
       </c>
     </row>
@@ -680,6 +3665,552 @@
         <is>
           <t xml:space="preserve"> 
 PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 454: OLD; ECON 356: OLD; ENGL 456: OLD; GEOG 354: OLD; POL 254: NB_T5; COMS 152: EHC_102, NB_T3; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: OLD; ECON 360: OLD; ENGL 458: OLD, EHC_101, NB_T5, NB_T1; GEOG 356: EHC_102; HIST 256: EHC_201; CSM 184: NB_T2, NB_T4, NB_T3; </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GLAK 262: OLD; MATH 154: OLD; </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: OLD; ECON 364: OLD; ENGL 468: EHC_101; GEOG 358: EHC_102; ECON 254: NB_T4, NB_T5, NB_T1, NB_T2; ENGL 152: EHC_201, NB_T3; </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOWK 260: OLD; HIST 152: OLD, NB_T5, NB_T4, EHC_102; </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 452: OLD; ECON 354: OLD; ENGL 454: OLD; GEOG 352: OLD; CAT 256: NB_T1, EHC_101, NB_T5, NB_T2, EHC_102; CHIN 102: NB_T3, EHC_201; </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 458: OLD; ECON 366: OLD; ENGL 470: NB_T2; GEOG 360: NB_T3; FREN 262: EHC_201; GEOG 152: EHC_101; </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 468: OLD; SOC 456: OLD; GEOG 358: OLD; ECON 254: OLD, EHC_201, NB_T2, NB_T1; ENGL 152: NB_T3, EHC_101; ECON 364: NB_T4, EHC_102; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 456: OLD; SOC 454: OLD; GEOG 354: OLD; POL 254: NB_T5; COMS 152: NB_T2, NB_T1; ECON 356: EHC_201; </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 454: OLD; SOC 452: OLD; GEOG 352: OLD; CAT 256: EHC_201, EHC_101, NB_T2, NB_T5, NB_T1; CHIN 102: EHC_102, NB_T3; ECON 354: NB_T4; </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GLAK 262: OLD; MATH 154: OLD; </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 458: OLD, NB_T3, EHC_101, NB_T5; SOC 456: EHC_201; GEOG 356: NB_T1; HIST 256: EHC_102; CSM 184: NB_T4, NB_T2, NB_T1; ECON 360: EHC_201; </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOWK 260: OLD; HIST 152: OLD, EHC_101, NB_T5, EHC_201; </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 470: OLD; SOC 458: OLD; GEOG 360: NB_T1; FREN 262: EHC_101; GEOG 152: EHC_201; ECON 366: NB_T5; </t>
         </is>
       </c>
     </row>
@@ -769,10 +4300,10 @@
 PERIOD 3</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CHIN 104</t>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 470: OLD; SOC 458: OLD; GEOG 360: NB_T4; ECON 366: EHC_102; GEOG 152: NB_T3; FREN 262: EHC_201; </t>
         </is>
       </c>
     </row>
@@ -791,10 +4322,10 @@
 PERIOD 5</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CAT 154</t>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD; GLAK 262: OLD; </t>
         </is>
       </c>
     </row>
@@ -813,12 +4344,6 @@
 PERIOD 7</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CECAST COURSE</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -827,6 +4352,12 @@
 PERIOD 8</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 152: OLD, NB_T5, NB_T1; SOWK 260: NB_T3; </t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -843,6 +4374,12 @@
 PERIOD 10</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 456: OLD; SOC 454: OLD; GEOG 354: OLD; ECON 356: NB_T5; COMS 152: EHC_102, NB_T4; POL 254: EHC_101; </t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -851,12 +4388,6 @@
 PERIOD 11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CHIN 106</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -881,10 +4412,10 @@
 PERIOD 14</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-IRAI ALLIRAI ALLCAT 152IRAI ALLIRAI ALLIRAI ALLIRAI ALLIRAI ALLIRAI ALLIRAI ALLIRAI ALL</t>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 454: OLD; SOC 452: OLD; GEOG 352: OLD; ECON 354: EHC_102; CHIN 102: NB_T5, NB_T3; CAT 256: EHC_201, NB_T4, NB_T2, NB_T1, EHC_101; </t>
         </is>
       </c>
     </row>
@@ -903,6 +4434,12 @@
 PERIOD 16</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 458: OLD, NB_T3, NB_T4, EHC_101; SOC 456: NB_T2; GEOG 356: NB_T1; ECON 360: EHC_201; CSM 184: EHC_102, NB_T5, NB_T1; HIST 256: EHC_201; </t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -911,12 +4448,6 @@
 PERIOD 17</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-COMS 152</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -949,10 +4480,10 @@
 PERIOD 21</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CHIN 102</t>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 468: OLD; SOC 456: OLD; GEOG 358: OLD; ECON 364: OLD; ENGL 152: EHC_201, NB_T3; ECON 254: NB_T2, NB_T4, EHC_102, NB_T1; </t>
         </is>
       </c>
     </row>
@@ -1034,10 +4565,10 @@
 PERIOD 2</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CAT 154</t>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GLAK 262: OLD; MATH 154: OLD; </t>
         </is>
       </c>
     </row>
@@ -1064,12 +4595,6 @@
 PERIOD 5</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CECAST COURSE</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1078,6 +4603,12 @@
 PERIOD 6</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOWK 260: OLD; HIST 152: OLD, NB_T2, NB_T3, EHC_102; </t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1086,6 +4617,12 @@
 PERIOD 7</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 352: OLD; CAT 256: OLD, NB_T1, NB_T5, EHC_102, EHC_201; ENGL 454: NB_T4; CHIN 102: EHC_101, NB_T3; SOC 452: NB_T2; ECON 354: NB_T3; </t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1094,12 +4631,6 @@
 PERIOD 8</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-IRAI ALLIRAI ALLIRAI ALLIRAI ALLIRAI ALLIRAI ALLIRAI ALLCAT 152IRAI ALLIRAI ALLIRAI ALL</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1116,10 +4647,10 @@
 PERIOD 10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CHIN 106</t>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 354: OLD; POL 254: OLD; ENGL 456: OLD; COMS 152: NB_T5, EHC_201; SOC 454: NB_T2; ECON 356: EHC_102; </t>
         </is>
       </c>
     </row>
@@ -1146,6 +4677,12 @@
 PERIOD 13</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 356: OLD; HIST 256: OLD; ENGL 458: OLD, NB_T3, NB_T4, NB_T5; CSM 184: NB_T1, EHC_101, NB_T2; SOC 456: EHC_102; ECON 360: EHC_201; </t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1154,12 +4691,6 @@
 PERIOD 14</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CHIN 104</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1184,6 +4715,12 @@
 PERIOD 17</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 360: OLD; FREN 262: OLD; ENGL 470: NB_T5; GEOG 152: NB_T1; SOC 458: EHC_201; ECON 366: NB_T3; </t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1192,12 +4729,6 @@
 PERIOD 18</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-COMS 152</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1222,10 +4753,1375 @@
 PERIOD 21</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CHIN 102</t>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 358: OLD; ECON 254: OLD, NB_T3, EHC_101, EHC_201; ENGL 468: EHC_102; ENGL 152: NB_T1, NB_T4; SOC 456: NB_T2; ECON 364: NB_T5, EHC_102; </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+FREN 262: OLD; GEOG 152: OLD; ECON 366: NB_T2; GEOG 360: EHC_201; ENGL 470: NB_T5; SOC 458: EHC_102; </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOWK 260: OLD; HIST 152: OLD, NB_T4, EHC_101, NB_T3; </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 256: OLD; CSM 184: OLD, NB_T5; ECON 360: NB_T4; GEOG 356: EHC_101; ENGL 458: NB_T1, EHC_102, NB_T2, EHC_201, NB_T3; SOC 456: EHC_101; </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+POL 254: OLD; COMS 152: OLD, EHC_201; ECON 356: NB_T1; GEOG 354: NB_T3; ENGL 456: EHC_101; SOC 454: NB_T4; </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GLAK 262: OLD; MATH 154: OLD; </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 254: OLD, EHC_201, EHC_101; ENGL 152: NB_T2, NB_T3; ECON 364: EHC_102, NB_T5; GEOG 358: NB_T4; ENGL 468: NB_T1; SOC 456: NB_T1; </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CAT 256: OLD, NB_T1, EHC_201, NB_T5; CHIN 102: NB_T2, EHC_102; ECON 354: NB_T3; GEOG 352: NB_T4; ENGL 454: EHC_101; SOC 452: EHC_102; </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 152: OLD, EHC_101, NB_T1; SOWK 260: NB_T2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 454: OLD; COMS 152: OLD, NB_T2; POL 254: EHC_201; ECON 356: NB_T3; GEOG 354: NB_T5; ENGL 456: EHC_101; </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 458: OLD; GEOG 152: OLD; FREN 262: EHC_102; ECON 366: EHC_201; GEOG 360: EHC_101; ENGL 470: NB_T2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 452: OLD; CHIN 102: OLD; CAT 256: NB_T3, NB_T1, EHC_102, EHC_201, NB_T4; ECON 354: NB_T2; GEOG 352: EHC_101; ENGL 454: NB_T5; </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD; GLAK 262: OLD; </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: OLD; ENGL 152: OLD; ECON 254: EHC_101, EHC_201, NB_T5, NB_T1; ECON 364: NB_T4, EHC_102; GEOG 358: NB_T2; ENGL 468: NB_T3; </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: OLD; CSM 184: OLD, EHC_201; HIST 256: NB_T5; ECON 360: EHC_101; GEOG 356: NB_T1; ENGL 458: NB_T4, NB_T2, EHC_102, NB_T3, NB_T1; </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 360: OLD; GEOG 356: OLD; CSM 184: OLD, NB_T4; ENGL 458: NB_T3, NB_T2, EHC_101, NB_T5, NB_T1; SOC 456: EHC_102; HIST 256: EHC_201; </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 364: OLD; GEOG 358: NB_T5; ENGL 152: NB_T3, EHC_101; ENGL 468: EHC_102; SOC 456: NB_T2; ECON 254: NB_T4, NB_T1, EHC_201, EHC_102; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 366: OLD; GEOG 360: OLD; GEOG 152: OLD; ENGL 470: OLD; SOC 458: NB_T3; FREN 262: NB_T5; </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 356: OLD; GEOG 354: OLD; COMS 152: OLD, NB_T4; ENGL 456: NB_T3; SOC 454: NB_T2; POL 254: EHC_201; </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 152: OLD, EHC_201, NB_T1; SOWK 260: NB_T5; </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD; GLAK 262: OLD; </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 354: OLD; GEOG 352: OLD; CHIN 102: NB_T5, NB_T3; ENGL 454: NB_T4; SOC 452: EHC_201; CAT 256: EHC_101, EHC_102, NB_T2, NB_T1, OLD; </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 454: OLD; SOC 452: OLD; CAT 256: OLD, NB_T3, NB_T1, EHC_102; ECON 354: EHC_101; CHIN 102: NB_T5, EHC_201; GEOG 352: NB_T4; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 468: OLD; SOC 456: OLD; ECON 254: OLD, EHC_102, NB_T3, EHC_201; ECON 364: NB_T4, NB_T5; ENGL 152: NB_T1, EHC_101; GEOG 358: NB_T2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOWK 260: OLD; HIST 152: OLD, NB_T2, NB_T1, NB_T3; </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 470: OLD; SOC 458: OLD; FREN 262: NB_T1; ECON 366: NB_T2; GEOG 152: NB_T4; GEOG 360: EHC_101; </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GLAK 262: OLD; MATH 154: OLD; </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 458: OLD, NB_T2, NB_T3, NB_T4; SOC 456: EHC_102; HIST 256: EHC_101; ECON 360: NB_T1; CSM 184: EHC_201, NB_T5, NB_T1; GEOG 356: EHC_102; </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 456: OLD; SOC 454: OLD; POL 254: OLD; ECON 356: NB_T4; COMS 152: EHC_201, NB_T1; GEOG 354: NB_T2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+COMS 152: OLD; GEOG 354: NB_T5; ECON 356: EHC_201; ENGL 456: EHC_102; SOC 454: NB_T4; POL 254: NB_T1; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CHIN 102: OLD; GEOG 352: NB_T4; ECON 354: NB_T5; ENGL 454: NB_T2; SOC 452: NB_T1; CAT 256: NB_T3, EHC_102, EHC_201, EHC_101, OLD; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 8</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 152: OLD; GEOG 360: OLD; ECON 366: OLD; ENGL 470: OLD; SOC 458: NB_T2; FREN 262: EHC_101; </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 152: OLD, EHC_101, NB_T3; SOWK 260: EHC_102; </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD; GLAK 262: OLD; </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CSM 184: OLD, EHC_201; GEOG 356: NB_T5; ECON 360: NB_T2; ENGL 458: NB_T4, NB_T3, EHC_101, EHC_102, NB_T1; SOC 456: NB_T5; HIST 256: NB_T2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 19</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 152: OLD; GEOG 358: NB_T1; ECON 364: EHC_201, NB_T4; ENGL 468: EHC_102; SOC 456: NB_T5; ECON 254: EHC_101, NB_T3, NB_T2, EHC_102; </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 21</t>
         </is>
       </c>
     </row>

--- a/data/Chromosome_data.xlsx
+++ b/data/Chromosome_data.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Chromosome 1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Chromosome 2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Chromosome 3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -348,7 +347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -376,10 +375,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -390,24 +389,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C3" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-Chromosome 3</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>56</v>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -480,22 +465,34 @@
 PERIOD 1</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD; GEOG 356: OLD; </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GLAK 262: OLD; COMS 152: OLD, EHC_101; ECON 356: EHC_201; </t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 468: OLD; SOC 456: OLD; GEOG 358: OLD; </t>
+SOC 456: OLD; HIST 256: OLD; ENGL 458: OLD, EHC_201, NB_T3, NB_T4; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 454: OLD; SOC 452: OLD; GEOG 352: OLD; </t>
+SOC 458: OLD; FREN 262: OLD; ENGL 470: NB_T3; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; RS 154: OLD, NB_T2, EHC_102, NB_T1; </t>
+SOC 454: OLD; POL 254: OLD; ENGL 456: OLD; </t>
         </is>
       </c>
     </row>
@@ -509,25 +506,31 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 364: OLD; ECON 254: NB_T2, EHC_101, EHC_102, NB_T1; ENGL 152: NB_T4, EHC_201; </t>
+LAW 258: OLD; CSM 184: OLD, EHC_201; ECON 360: NB_T2; </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GLAK 262: OLD; MATH 154: OLD; </t>
+GEOG 152: OLD; ECON 366: OLD; GEOG 352: OLD; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 256: OLD; SOC 152: OLD; </t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 458: OLD, NB_T5, EHC_102, NB_T3; SOC 456: EHC_101; GEOG 356: NB_T4; </t>
+SOC 152: OLD; GEOG 360: OLD; </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 152: OLD, NB_T3, NB_T1; GEOG 354: NB_T5; </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 256: OLD; ENGL 152: OLD; ECON 364: NB_T5, EHC_102; </t>
         </is>
       </c>
     </row>
@@ -538,46 +541,28 @@
 PERIOD 3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 456: OLD; SOC 454: OLD; GEOG 354: OLD; </t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 470: OLD; SOC 458: OLD; GEOG 360: NB_T3; </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOWK 260: OLD; HIST 152: OLD, NB_T4, NB_T3, EHC_101; </t>
+SOC 452: OLD; CAT 256: OLD, NB_T3, NB_T2, EHC_201; ENGL 454: EHC_102; </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 356: OLD; POL 254: OLD; COMS 152: OLD, NB_T2; </t>
+RS 154: OLD, NB_T5, NB_T1, EHC_201; GEOG 358: NB_T2; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 360: OLD; HIST 256: OLD; CSM 184: OLD, NB_T4; </t>
+SOWK 260: OLD; CHIN 102: OLD; ECON 354: NB_T1; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 366: OLD; FREN 262: OLD; GEOG 152: NB_T5; </t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 354: OLD; CAT 256: OLD, NB_T3, NB_T2, NB_T5; CHIN 102: NB_T4, EHC_101; </t>
+SOC 456: OLD; ECON 254: OLD, EHC_201, EHC_101, NB_T2; ENGL 468: NB_T1; </t>
         </is>
       </c>
     </row>
@@ -651,28 +636,28 @@
 PERIOD 1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 470: OLD; GEOG 152: OLD; GEOG 352: OLD; </t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-POL 254: OLD; ECON 356: OLD; COMS 152: OLD, NB_T5; </t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 254: OLD, NB_T1, NB_T4; ECON 364: EHC_201, NB_T3; ENGL 152: NB_T5, EHC_101; </t>
+SOC 152: OLD; GEOG 360: OLD; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 256: OLD; SOC 152: OLD; SOC 456: OLD; </t>
+LAW 258: OLD; ENGL 458: OLD, NB_T3, NB_T4, EHC_101; CSM 184: EHC_102, NB_T1, NB_T5; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 354: OLD; ENGL 456: OLD; </t>
+ECON 254: OLD, EHC_102, NB_T3; SOC 456: NB_T4; ECON 364: NB_T2, EHC_101; </t>
         </is>
       </c>
     </row>
@@ -683,34 +668,28 @@
 PERIOD 2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 356: OLD; ENGL 458: OLD, NB_T3, NB_T1, NB_T5; </t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; RS 154: OLD, EHC_101, EHC_102, NB_T2; SOC 456: NB_T3; </t>
+HIST 256: OLD; SOC 456: OLD; ECON 360: OLD; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-FREN 262: OLD; ECON 366: OLD; GEOG 152: NB_T5; </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 458: OLD; GEOG 352: OLD; ENGL 454: EHC_201; </t>
+GLAK 262: OLD; ENGL 456: OLD; COMS 152: NB_T5, EHC_201; </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 360: OLD; ENGL 470: OLD; </t>
+RS 154: OLD, EHC_102, NB_T3, NB_T4; GEOG 358: NB_T1; </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CAT 256: OLD, NB_T5, NB_T1, EHC_102; SOC 452: NB_T2; ECON 354: EHC_201; </t>
         </is>
       </c>
     </row>
@@ -721,205 +700,40 @@
 PERIOD 3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CAT 256: OLD, NB_T3, EHC_102, NB_T1; ECON 354: EHC_101; CHIN 102: NB_T5, NB_T2; </t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: OLD; HIST 152: OLD, NB_T5, EHC_101, NB_T1; SOC 452: EHC_102; </t>
+GEOG 256: OLD; ENGL 468: OLD; ENGL 152: OLD; </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD; GEOG 356: OLD; </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GLAK 262: OLD; MATH 154: OLD; SOC 454: EHC_201; </t>
+POL 254: OLD; SOC 454: OLD; ECON 356: OLD; </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOWK 260: OLD; ENGL 454: OLD; CHIN 102: EHC_102, EHC_101; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 256: OLD; ECON 360: OLD; CSM 184: OLD, EHC_201; </t>
+HIST 152: OLD, NB_T5, NB_T4; GEOG 354: NB_T3; </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 358: OLD; ENGL 468: OLD; </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-PERIOD 1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOWK 260: OLD; HIST 152: OLD, NB_T2, EHC_201, NB_T5; ENGL 454: NB_T3; </t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 356: OLD; GEOG 354: OLD; </t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 366: OLD; GEOG 360: OLD; </t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 254: OLD, NB_T3, EHC_102; ENGL 152: NB_T5, NB_T1; SOC 456: EHC_201; </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-PERIOD 2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-LAW 258: OLD; RS 154: OLD, NB_T1, NB_T4, NB_T5; ENGL 458: NB_T2, NB_T3, EHC_201, EHC_101, EHC_102; </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-FREN 262: OLD; GEOG 152: OLD; SOC 458: EHC_102; </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 256: OLD; SOC 152: OLD; ENGL 468: OLD; </t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GLAK 262: OLD; MATH 154: OLD; ENGL 456: NB_T5; </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-PERIOD 3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-POL 254: OLD; COMS 152: OLD, NB_T3; SOC 454: EHC_102; </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CAT 256: OLD, NB_T1, NB_T2, NB_T5; CHIN 102: EHC_201, EHC_101; SOC 452: EHC_102; </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-HIST 256: OLD; CSM 184: OLD, NB_T4; SOC 456: NB_T1; </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 360: OLD; GEOG 356: OLD; </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 364: OLD; GEOG 358: NB_T1; </t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 470: OLD; ECON 354: OLD; GEOG 352: OLD; </t>
+FREN 262: OLD; SOC 458: OLD; ECON 366: EHC_101; </t>
         </is>
       </c>
     </row>

--- a/data/Chromosome_data.xlsx
+++ b/data/Chromosome_data.xlsx
@@ -10,6 +10,10 @@
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Chromosome 1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Chromosome 2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Chromosome 3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Chromosome 4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Chromosome 5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Chromosome 6" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -347,7 +351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -375,7 +379,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>57</v>
@@ -389,10 +393,66 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>43</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -465,34 +525,22 @@
 PERIOD 1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+LAW 258: OLD; GEOG 358: OLD; </t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-MATH 154: OLD; GEOG 356: OLD; </t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GLAK 262: OLD; COMS 152: OLD, EHC_101; ECON 356: EHC_201; </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 456: OLD; HIST 256: OLD; ENGL 458: OLD, EHC_201, NB_T3, NB_T4; </t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 458: OLD; FREN 262: OLD; ENGL 470: NB_T3; </t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 454: OLD; POL 254: OLD; ENGL 456: OLD; </t>
+SOC 458: OLD; GEOG 152: OLD; ENGL 470: EHC_101; </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 152: OLD; ECON 254: OLD, EHC_101, EHC_102, EHC_201; ECON 364: NB_T1, NB_T2; </t>
         </is>
       </c>
     </row>
@@ -506,31 +554,37 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; CSM 184: OLD, EHC_201; ECON 360: NB_T2; </t>
+FREN 262: OLD; ECON 366: OLD; GEOG 352: EHC_101; </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 152: OLD; ECON 366: OLD; GEOG 352: OLD; </t>
+SOC 456: OLD; CSM 184: OLD, EHC_101; ENGL 458: EHC_102, EHC_201, NB_T1, NB_T2, NB_T3; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 152: OLD; GEOG 360: OLD; </t>
+MATH 154: OLD; POL 254: OLD; ECON 356: EHC_101; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 152: OLD, NB_T3, NB_T1; GEOG 354: NB_T5; </t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 256: OLD; ENGL 152: OLD; ECON 364: NB_T5, EHC_102; </t>
+SOC 452: OLD; CHIN 102: OLD; ENGL 454: EHC_101; </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOWK 260: OLD; GEOG 354: OLD; </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 256: OLD; GEOG 360: OLD; </t>
         </is>
       </c>
     </row>
@@ -541,28 +595,34 @@
 PERIOD 3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: OLD; ENGL 152: OLD; ENGL 468: EHC_101; </t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 452: OLD; CAT 256: OLD, NB_T3, NB_T2, EHC_201; ENGL 454: EHC_102; </t>
+RS 154: OLD, NB_T2, EHC_101, EHC_102; HIST 256: EHC_201; ECON 360: NB_T1; </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 454: OLD; COMS 152: OLD, EHC_101; ENGL 456: EHC_102; </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-RS 154: OLD, NB_T5, NB_T1, EHC_201; GEOG 358: NB_T2; </t>
+GLAK 262: OLD; GEOG 356: OLD; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: OLD; CHIN 102: OLD; ECON 354: NB_T1; </t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 456: OLD; ECON 254: OLD, EHC_201, EHC_101, NB_T2; ENGL 468: NB_T1; </t>
+HIST 152: OLD, EHC_102, NB_T5; CAT 256: EHC_101, EHC_201, NB_T1, NB_T2, NB_T3; ECON 354: NB_T4; </t>
         </is>
       </c>
     </row>
@@ -639,25 +699,43 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 470: OLD; GEOG 152: OLD; GEOG 352: OLD; </t>
+SOWK 260: OLD; </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 152: OLD; GEOG 360: OLD; </t>
+GEOG 358: OLD; ECON 364: OLD; ENGL 152: EHC_101, EHC_102; </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD; SOC 454: OLD; ENGL 456: OLD; </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+POL 254: OLD; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; ENGL 458: OLD, NB_T3, NB_T4, EHC_101; CSM 184: EHC_102, NB_T1, NB_T5; </t>
+HIST 152: OLD, NB_T4, EHC_101; SOC 452: EHC_102; ENGL 454: EHC_201; </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+RS 154: OLD, EHC_101, EHC_102, EHC_201; SOC 456: NB_T1; ENGL 458: NB_T2, NB_T3, NB_T4, NB_T5, NB_T1; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 254: OLD, EHC_102, NB_T3; SOC 456: NB_T4; ECON 364: NB_T2, EHC_101; </t>
+GLAK 262: OLD; </t>
         </is>
       </c>
     </row>
@@ -668,28 +746,40 @@
 PERIOD 2</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-HIST 256: OLD; SOC 456: OLD; ECON 360: OLD; </t>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 254: OLD, NB_T2, NB_T5; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GLAK 262: OLD; ENGL 456: OLD; COMS 152: NB_T5, EHC_201; </t>
+GEOG 352: OLD; ECON 354: OLD; CHIN 102: EHC_101, EHC_102; </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 356: OLD; ECON 360: OLD; CSM 184: OLD, EHC_101; </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-RS 154: OLD, EHC_102, NB_T3, NB_T4; GEOG 358: NB_T1; </t>
+GEOG 360: OLD; ECON 366: OLD; GEOG 152: OLD; </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 458: OLD; ENGL 470: OLD; CAT 256: EHC_101, EHC_102, EHC_201, NB_T1, NB_T2; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CAT 256: OLD, NB_T5, NB_T1, EHC_102; SOC 452: NB_T2; ECON 354: EHC_201; </t>
+LAW 258: OLD; </t>
         </is>
       </c>
     </row>
@@ -700,40 +790,718 @@
 PERIOD 3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+FREN 262: OLD; </t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 256: OLD; ENGL 468: OLD; ENGL 152: OLD; </t>
+HIST 256: OLD; </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 354: OLD; ECON 356: OLD; COMS 152: OLD, EHC_101; </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 256: OLD; </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 152: OLD; SOC 456: OLD; ENGL 468: OLD; </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD; GEOG 354: OLD; POL 254: OLD; </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOWK 260: OLD; SOC 454: OLD; </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 356: OLD; ENGL 456: OLD; COMS 152: OLD, EHC_101; </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GLAK 262: OLD; SOC 456: OLD; </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 256: OLD; SOC 458: OLD; </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 366: OLD; ENGL 470: OLD; GEOG 152: OLD; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+RS 154: OLD, EHC_102, NB_T1, NB_T2; GEOG 356: EHC_101; HIST 256: EHC_201; </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 360: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; CSM 184: NB_T1, NB_T2, NB_T3; </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+LAW 258: OLD; SOC 456: OLD; </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 354: OLD; ENGL 454: OLD; CHIN 102: OLD; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 152: OLD; GEOG 358: OLD; ECON 254: OLD, EHC_101, EHC_102, EHC_201; </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 364: OLD; ENGL 468: EHC_101; ENGL 152: EHC_102, EHC_201; </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 152: OLD, NB_T4, NB_T3; GEOG 352: EHC_101; CAT 256: EHC_102, EHC_201, NB_T1, NB_T2, NB_T5; </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 360: OLD; FREN 262: OLD; SOC 452: EHC_101; </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 358: OLD; ENGL 152: OLD; SOC 456: EHC_101; </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+RS 154: OLD, NB_T3, NB_T2, NB_T4; HIST 256: EHC_101; ECON 360: EHC_102; </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOWK 260: OLD; ENGL 456: OLD; </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 356: OLD; CSM 184: OLD, EHC_101; SOC 456: EHC_102; </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 354: OLD; COMS 152: OLD, EHC_101; SOC 454: EHC_102; </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD; POL 254: OLD; ECON 356: EHC_101; </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 152: OLD, EHC_101, NB_T1; CAT 256: EHC_102, EHC_201, NB_T2, NB_T3, NB_T4; ECON 354: NB_T5; </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GLAK 262: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 152: OLD; ECON 254: OLD, EHC_101, EHC_102, EHC_201; ECON 364: NB_T1, NB_T2; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+FREN 262: OLD; ECON 366: OLD; ENGL 454: EHC_101; </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-MATH 154: OLD; GEOG 356: OLD; </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-POL 254: OLD; SOC 454: OLD; ECON 356: OLD; </t>
+GEOG 352: OLD; CHIN 102: OLD; SOC 452: EHC_101; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: OLD; ENGL 454: OLD; CHIN 102: EHC_102, EHC_101; </t>
+LAW 258: OLD; ENGL 468: OLD; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 152: OLD, NB_T5, NB_T4; GEOG 354: NB_T3; </t>
+GEOG 256: OLD; ENGL 470: OLD; </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-FREN 262: OLD; SOC 458: OLD; ECON 366: EHC_101; </t>
+GEOG 360: OLD; GEOG 152: OLD; SOC 458: OLD; </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 458: OLD, EHC_201, NB_T1, NB_T2; GEOG 356: EHC_101; CSM 184: EHC_102, NB_T3, NB_T4; </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+LAW 258: OLD; ECON 364: OLD; </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD; SOC 454: OLD; POL 254: OLD; </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 456: OLD; GEOG 354: OLD; COMS 152: OLD, EHC_101; </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 152: OLD, NB_T2, NB_T4; SOC 452: EHC_101; CAT 256: EHC_102, EHC_201, NB_T1, NB_T3, NB_T5; </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 256: OLD; ECON 366: OLD; </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 470: OLD; GEOG 360: OLD; GEOG 152: OLD; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 468: OLD; GEOG 358: OLD; ENGL 152: OLD; </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GLAK 262: OLD; ECON 360: OLD; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 454: OLD; GEOG 352: OLD; CHIN 102: EHC_101, EHC_102; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOWK 260: OLD; ECON 356: OLD; </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+RS 154: OLD, NB_T3, EHC_102, EHC_201; SOC 456: EHC_101; HIST 256: NB_T1; </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 458: OLD; FREN 262: OLD; ECON 354: EHC_101; </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 152: OLD; SOC 456: OLD; ECON 254: OLD, EHC_101, EHC_102, EHC_201; </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GLAK 262: OLD; MATH 154: OLD; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 454: OLD; ECON 356: OLD; GEOG 354: OLD; </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CAT 256: OLD, NB_T5, EHC_201, EHC_102; CHIN 102: EHC_101, NB_T1; ENGL 454: NB_T2; </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 458: OLD; ECON 366: OLD; GEOG 360: EHC_101; </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 254: OLD, NB_T3, EHC_102; ENGL 152: EHC_101, EHC_201; ENGL 468: NB_T1; </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOWK 260: OLD; HIST 152: OLD, EHC_101, EHC_102, EHC_201; </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 452: OLD; ECON 354: OLD; GEOG 352: OLD; </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 256: OLD; SOC 152: OLD; </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 256: OLD; CSM 184: OLD, EHC_101; ENGL 458: EHC_102, EHC_201, NB_T1, NB_T2, NB_T3; </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+FREN 262: OLD; GEOG 152: OLD; ENGL 470: EHC_101; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+LAW 258: OLD; RS 154: OLD, EHC_101, EHC_102, EHC_201; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: OLD; ECON 364: OLD; GEOG 358: EHC_101; </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: OLD; ECON 360: OLD; GEOG 356: OLD; </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+POL 254: OLD; COMS 152: OLD, EHC_101; ENGL 456: EHC_102; </t>
         </is>
       </c>
     </row>

--- a/data/Chromosome_data.xlsx
+++ b/data/Chromosome_data.xlsx
@@ -379,10 +379,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C2" t="n">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -393,10 +393,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -407,10 +407,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -421,10 +421,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -435,10 +435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C6" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -449,10 +449,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C7" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -528,19 +528,25 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; GEOG 358: OLD; </t>
+GEOG 360: OLD; ECON 354: OLD; SOC 452: OLD; </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 458: OLD; GEOG 152: OLD; ENGL 470: EHC_101; </t>
+SOWK 260: OLD; HIST 152: OLD, EHC_101, EHC_102, EHC_201; GEOG 352: NB_T1; </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 456: OLD; POL 254: OLD; COMS 152: EHC_101, EHC_102; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 152: OLD; ECON 254: OLD, EHC_101, EHC_102, EHC_201; ECON 364: NB_T1, NB_T2; </t>
+GEOG 256: OLD; SOC 152: OLD; GEOG 358: OLD; </t>
         </is>
       </c>
     </row>
@@ -551,40 +557,28 @@
 PERIOD 2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-FREN 262: OLD; ECON 366: OLD; GEOG 352: EHC_101; </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 456: OLD; CSM 184: OLD, EHC_101; ENGL 458: EHC_102, EHC_201, NB_T1, NB_T2, NB_T3; </t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-MATH 154: OLD; POL 254: OLD; ECON 356: EHC_101; </t>
+ENGL 454: OLD; CAT 256: OLD, EHC_101, EHC_102, EHC_201; CHIN 102: NB_T1, NB_T2; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 452: OLD; CHIN 102: OLD; ENGL 454: EHC_101; </t>
+ECON 356: OLD; SOC 454: OLD; </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: OLD; GEOG 354: OLD; </t>
+ECON 364: OLD; SOC 456: EHC_101; </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 256: OLD; GEOG 360: OLD; </t>
+ENGL 458: OLD, NB_T2, NB_T4, NB_T5; HIST 256: EHC_101; CSM 184: EHC_102, EHC_201, EHC_101; </t>
         </is>
       </c>
     </row>
@@ -598,31 +592,37 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: OLD; ENGL 152: OLD; ENGL 468: EHC_101; </t>
+ENGL 470: OLD; FREN 262: OLD; GEOG 152: EHC_101; </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-RS 154: OLD, NB_T2, EHC_101, EHC_102; HIST 256: EHC_201; ECON 360: NB_T1; </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 454: OLD; COMS 152: OLD, EHC_101; ENGL 456: EHC_102; </t>
+ENGL 468: OLD; ECON 254: OLD, EHC_101, EHC_102; ENGL 152: EHC_201, EHC_EXT_A; </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GLAK 262: OLD; GEOG 356: OLD; </t>
+ECON 366: OLD; SOC 458: OLD; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 152: OLD, EHC_102, NB_T5; CAT 256: EHC_101, EHC_201, NB_T1, NB_T2, NB_T3; ECON 354: NB_T4; </t>
+ECON 360: OLD; SOC 456: OLD; </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+LAW 258: OLD; RS 154: OLD, EHC_101, EHC_102, EHC_201; GEOG 356: NB_T1; </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GLAK 262: OLD; MATH 154: OLD; GEOG 354: EHC_101; </t>
         </is>
       </c>
     </row>
@@ -699,43 +699,25 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: OLD; </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 358: OLD; ECON 364: OLD; ENGL 152: EHC_101, EHC_102; </t>
+MATH 154: OLD; POL 254: OLD; ENGL 456: EHC_101; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-MATH 154: OLD; SOC 454: OLD; ENGL 456: OLD; </t>
+GEOG 354: OLD; ECON 356: OLD; COMS 152: OLD, EHC_101; </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-POL 254: OLD; </t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-HIST 152: OLD, NB_T4, EHC_101; SOC 452: EHC_102; ENGL 454: EHC_201; </t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-RS 154: OLD, EHC_101, EHC_102, EHC_201; SOC 456: NB_T1; ENGL 458: NB_T2, NB_T3, NB_T4, NB_T5, NB_T1; </t>
+GEOG 360: OLD; ECON 366: OLD; GEOG 152: OLD; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GLAK 262: OLD; </t>
+SOWK 260: OLD; SOC 454: OLD; </t>
         </is>
       </c>
     </row>
@@ -749,37 +731,37 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 254: OLD, NB_T2, NB_T5; </t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+GEOG 256: OLD; SOC 458: OLD; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GLAK 262: OLD; SOC 456: OLD; </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+RS 154: OLD, NB_T1, NB_T4, NB_T5; HIST 256: EHC_101; ENGL 458: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 356: OLD; ECON 360: OLD; CSM 184: OLD, EHC_101; </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+LAW 258: OLD; SOC 456: OLD; </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 GEOG 352: OLD; ECON 354: OLD; CHIN 102: EHC_101, EHC_102; </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 356: OLD; ECON 360: OLD; CSM 184: OLD, EHC_101; </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 360: OLD; ECON 366: OLD; GEOG 152: OLD; </t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 458: OLD; ENGL 470: OLD; CAT 256: EHC_101, EHC_102, EHC_201, NB_T1, NB_T2; </t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-LAW 258: OLD; </t>
         </is>
       </c>
     </row>
@@ -793,31 +775,25 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-FREN 262: OLD; </t>
+FREN 262: OLD; ENGL 470: OLD; SOC 452: EHC_101; </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 256: OLD; </t>
+SOC 152: OLD; ECON 254: OLD, EHC_101, EHC_102, EHC_201; ENGL 468: NB_T1; </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 358: OLD; ECON 364: OLD; ENGL 152: EHC_101, EHC_102; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 354: OLD; ECON 356: OLD; COMS 152: OLD, EHC_101; </t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 256: OLD; </t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 152: OLD; SOC 456: OLD; ENGL 468: OLD; </t>
+HIST 152: OLD, NB_T2, NB_T5; CAT 256: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; ENGL 454: NB_T1; </t>
         </is>
       </c>
     </row>
@@ -891,34 +867,34 @@
 PERIOD 1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 256: OLD; GEOG 358: OLD; ENGL 152: OLD; </t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-MATH 154: OLD; GEOG 354: OLD; POL 254: OLD; </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOWK 260: OLD; SOC 454: OLD; </t>
+GLAK 262: OLD; GEOG 354: OLD; COMS 152: OLD, EHC_101; </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 454: OLD; POL 254: OLD; ECON 356: OLD; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 356: OLD; ENGL 456: OLD; COMS 152: OLD, EHC_101; </t>
+GEOG 360: OLD; GEOG 152: OLD; ENGL 454: OLD; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GLAK 262: OLD; SOC 456: OLD; </t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 256: OLD; SOC 458: OLD; </t>
+SOWK 260: OLD; GEOG 352: OLD; CHIN 102: EHC_101, EHC_102; </t>
         </is>
       </c>
     </row>
@@ -929,34 +905,28 @@
 PERIOD 2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 366: OLD; ENGL 470: OLD; GEOG 152: OLD; </t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-RS 154: OLD, EHC_102, NB_T1, NB_T2; GEOG 356: EHC_101; HIST 256: EHC_201; </t>
+SOC 152: OLD; ENGL 470: OLD; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 360: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; CSM 184: NB_T1, NB_T2, NB_T3; </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-LAW 258: OLD; SOC 456: OLD; </t>
+LAW 258: OLD; GEOG 356: OLD; CSM 184: OLD, EHC_101; </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: OLD; ECON 254: OLD, EHC_101, EHC_102, EHC_201; ECON 364: NB_T1, NB_T2; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 354: OLD; ENGL 454: OLD; CHIN 102: OLD; </t>
+MATH 154: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
         </is>
       </c>
     </row>
@@ -970,25 +940,31 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 152: OLD; GEOG 358: OLD; ECON 254: OLD, EHC_101, EHC_102, EHC_201; </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 364: OLD; ENGL 468: EHC_101; ENGL 152: EHC_102, EHC_201; </t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-HIST 152: OLD, NB_T4, NB_T3; GEOG 352: EHC_101; CAT 256: EHC_102, EHC_201, NB_T1, NB_T2, NB_T5; </t>
+RS 154: OLD, EHC_101, EHC_102, EHC_201; ENGL 468: NB_T1; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: OLD; HIST 256: OLD; ECON 360: OLD; </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 452: OLD; CAT 256: OLD, EHC_101, EHC_102, EHC_201; ECON 354: NB_T1; </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 152: OLD, NB_T1, NB_T2; ENGL 456: EHC_101; </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 360: OLD; FREN 262: OLD; SOC 452: EHC_101; </t>
+SOC 458: OLD; FREN 262: OLD; ECON 366: EHC_101; </t>
         </is>
       </c>
     </row>
@@ -1062,34 +1038,28 @@
 PERIOD 1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 358: OLD; ENGL 152: OLD; SOC 456: EHC_101; </t>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 454: OLD; GEOG 354: OLD; ECON 356: OLD; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-RS 154: OLD, NB_T3, NB_T2, NB_T4; HIST 256: EHC_101; ECON 360: EHC_102; </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOWK 260: OLD; ENGL 456: OLD; </t>
+HIST 152: OLD, NB_T2, NB_T5; SOWK 260: EHC_101; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 356: OLD; CSM 184: OLD, EHC_101; SOC 456: EHC_102; </t>
+SOC 452: OLD; GEOG 352: OLD; ECON 354: OLD; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 354: OLD; COMS 152: OLD, EHC_101; SOC 454: EHC_102; </t>
+SOC 152: OLD; GEOG 256: OLD; </t>
         </is>
       </c>
     </row>
@@ -1100,28 +1070,34 @@
 PERIOD 2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-MATH 154: OLD; POL 254: OLD; ECON 356: EHC_101; </t>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CHIN 102: OLD; CAT 256: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; ENGL 454: NB_T1; </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: OLD; GEOG 358: OLD; ECON 364: OLD; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 152: OLD, EHC_101, NB_T1; CAT 256: EHC_102, EHC_201, NB_T2, NB_T3, NB_T4; ECON 354: NB_T5; </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GLAK 262: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
+CSM 184: OLD, NB_T4; HIST 256: EHC_101; ENGL 458: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 152: OLD; ECON 254: OLD, EHC_101, EHC_102, EHC_201; ECON 364: NB_T1, NB_T2; </t>
+RS 154: OLD, NB_T2, NB_T5, NB_T3; LAW 258: EHC_101; </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD; GLAK 262: OLD; </t>
         </is>
       </c>
     </row>
@@ -1135,31 +1111,31 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-FREN 262: OLD; ECON 366: OLD; ENGL 454: EHC_101; </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 352: OLD; CHIN 102: OLD; SOC 452: EHC_101; </t>
+COMS 152: OLD; POL 254: EHC_101; ENGL 456: EHC_102; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 152: OLD; FREN 262: OLD; ENGL 470: EHC_101; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; ENGL 468: OLD; </t>
+SOC 456: OLD; GEOG 356: OLD; ECON 360: OLD; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 256: OLD; ENGL 470: OLD; </t>
+SOC 458: OLD; GEOG 360: OLD; ECON 366: EHC_101; </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 360: OLD; GEOG 152: OLD; SOC 458: OLD; </t>
+ENGL 152: OLD; ECON 254: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; ENGL 468: NB_T1; </t>
         </is>
       </c>
     </row>
@@ -1233,40 +1209,28 @@
 PERIOD 1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 458: OLD, EHC_201, NB_T1, NB_T2; GEOG 356: EHC_101; CSM 184: EHC_102, NB_T3, NB_T4; </t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; ECON 364: OLD; </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-MATH 154: OLD; SOC 454: OLD; POL 254: OLD; </t>
+RS 154: OLD, EHC_201, EHC_101, EHC_102; ENGL 468: NB_T1; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 456: OLD; GEOG 354: OLD; COMS 152: OLD, EHC_101; </t>
+SOC 456: OLD; ECON 360: OLD; HIST 256: OLD; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 152: OLD, NB_T2, NB_T4; SOC 452: EHC_101; CAT 256: EHC_102, EHC_201, NB_T1, NB_T3, NB_T5; </t>
+SOC 452: OLD; ECON 354: OLD; CAT 256: OLD, EHC_101, EHC_102, EHC_201; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 256: OLD; ECON 366: OLD; </t>
+MATH 154: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
         </is>
       </c>
     </row>
@@ -1280,19 +1244,31 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 470: OLD; GEOG 360: OLD; GEOG 152: OLD; </t>
+HIST 152: OLD, NB_T1, NB_T2; ENGL 456: EHC_101; </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 468: OLD; GEOG 358: OLD; ENGL 152: OLD; </t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GLAK 262: OLD; ECON 360: OLD; </t>
+GEOG 152: OLD; GEOG 360: OLD; ENGL 454: OLD; </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 152: OLD; ENGL 470: OLD; </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: OLD; ECON 364: OLD; ECON 254: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 454: OLD; ECON 356: OLD; POL 254: OLD; </t>
         </is>
       </c>
     </row>
@@ -1303,34 +1279,34 @@
 PERIOD 3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 454: OLD; GEOG 352: OLD; CHIN 102: EHC_101, EHC_102; </t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: OLD; ECON 356: OLD; </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-RS 154: OLD, NB_T3, EHC_102, EHC_201; SOC 456: EHC_101; HIST 256: NB_T1; </t>
+GLAK 262: OLD; COMS 152: OLD, EHC_101; GEOG 354: EHC_102; </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 458: OLD; ECON 366: OLD; FREN 262: EHC_101; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 458: OLD; FREN 262: OLD; ECON 354: EHC_101; </t>
+SOWK 260: OLD; CHIN 102: OLD; GEOG 352: EHC_101; </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 256: OLD; ENGL 152: OLD; GEOG 358: EHC_101; </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 152: OLD; SOC 456: OLD; ECON 254: OLD, EHC_101, EHC_102, EHC_201; </t>
+LAW 258: OLD; CSM 184: OLD, EHC_101; GEOG 356: EHC_102; </t>
         </is>
       </c>
     </row>
@@ -1407,37 +1383,31 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GLAK 262: OLD; MATH 154: OLD; </t>
+SOC 456: OLD; ENGL 152: OLD; GEOG 358: EHC_101; </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 454: OLD; ECON 356: OLD; GEOG 354: OLD; </t>
+LAW 258: OLD; ENGL 468: OLD; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CAT 256: OLD, NB_T5, EHC_201, EHC_102; CHIN 102: EHC_101, NB_T1; ENGL 454: NB_T2; </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 458: OLD; ECON 366: OLD; GEOG 360: EHC_101; </t>
+ECON 366: OLD; FREN 262: OLD; ENGL 454: EHC_101; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 254: OLD, NB_T3, EHC_102; ENGL 152: EHC_101, EHC_201; ENGL 468: NB_T1; </t>
+SOWK 260: OLD; ENGL 456: OLD; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: OLD; HIST 152: OLD, EHC_101, EHC_102, EHC_201; </t>
+MATH 154: OLD; ECON 356: OLD; POL 254: OLD; </t>
         </is>
       </c>
     </row>
@@ -1448,28 +1418,40 @@
 PERIOD 2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 452: OLD; ECON 354: OLD; GEOG 352: OLD; </t>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 458: OLD; GEOG 152: OLD; GEOG 360: EHC_101; </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 256: OLD; ENGL 470: OLD; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 256: OLD; SOC 152: OLD; </t>
+SOC 454: OLD; COMS 152: OLD, EHC_101; GEOG 354: EHC_102; </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+RS 154: OLD, EHC_101, EHC_201, EHC_102; ECON 360: NB_T1; HIST 256: NB_T2; </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 256: OLD; CSM 184: OLD, EHC_101; ENGL 458: EHC_102, EHC_201, NB_T1, NB_T2, NB_T3; </t>
+SOC 152: OLD; ECON 364: OLD; ECON 254: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-FREN 262: OLD; GEOG 152: OLD; ENGL 470: EHC_101; </t>
+SOC 456: OLD; CSM 184: OLD, EHC_101; GEOG 356: EHC_102; </t>
         </is>
       </c>
     </row>
@@ -1480,28 +1462,22 @@
 PERIOD 3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-LAW 258: OLD; RS 154: OLD, EHC_101, EHC_102, EHC_201; </t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: OLD; ECON 364: OLD; GEOG 358: EHC_101; </t>
+HIST 152: OLD, NB_T4, NB_T2; ECON 354: EHC_101; CAT 256: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: OLD; ECON 360: OLD; GEOG 356: OLD; </t>
+GLAK 262: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-POL 254: OLD; COMS 152: OLD, EHC_101; ENGL 456: EHC_102; </t>
+SOC 452: OLD; CHIN 102: OLD; GEOG 352: EHC_101; </t>
         </is>
       </c>
     </row>

--- a/data/Chromosome_data.xlsx
+++ b/data/Chromosome_data.xlsx
@@ -1,19 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Chromosome 1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Chromosome 2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Chromosome 3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Chromosome 4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Chromosome 5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Chromosome 6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chromosome 1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chromosome 2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chromosome 3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chromosome 4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,15 +48,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -351,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,10 +445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -393,10 +459,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -407,10 +473,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -421,42 +487,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-Chromosome 5</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>56</v>
-      </c>
-      <c r="C6" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-Chromosome 6</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>56</v>
-      </c>
-      <c r="C7" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -528,25 +566,31 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 360: OLD; ECON 354: OLD; SOC 452: OLD; </t>
+SOWK 260: OLD; ECON 354: OLD; CHIN 102: OLD; </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: OLD; HIST 152: OLD, EHC_101, EHC_102, EHC_201; GEOG 352: NB_T1; </t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 456: OLD; POL 254: OLD; COMS 152: EHC_101, EHC_102; </t>
+RS 154: OLD, NB_T3, NB_T5, NB_T4; GEOG 358: EHC_101; </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GLAK 262: OLD; ECON 356: OLD; COMS 152: OLD, EHC_101; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 256: OLD; SOC 152: OLD; GEOG 358: OLD; </t>
+LAW 258: OLD; ECON 360: OLD; CSM 184: OLD, EHC_101; </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 454: OLD; POL 254: OLD; ENGL 456: OLD; </t>
         </is>
       </c>
     </row>
@@ -557,28 +601,40 @@
 PERIOD 2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 152: OLD; GEOG 360: OLD; </t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 454: OLD; CAT 256: OLD, EHC_101, EHC_102, EHC_201; CHIN 102: NB_T1, NB_T2; </t>
+SOC 456: OLD; ECON 254: OLD, EHC_101, EHC_102, EHC_201; ENGL 468: NB_T1; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 356: OLD; SOC 454: OLD; </t>
+ECON 366: OLD; GEOG 152: OLD; GEOG 352: OLD; </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 364: OLD; SOC 456: EHC_101; </t>
+GEOG 256: OLD; ECON 364: OLD; ENGL 152: EHC_101, EHC_102; </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 458: OLD, NB_T2, NB_T4, NB_T5; HIST 256: EHC_101; CSM 184: EHC_102, EHC_201, EHC_101; </t>
+SOC 456: OLD; HIST 256: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD; GEOG 356: OLD; </t>
         </is>
       </c>
     </row>
@@ -592,42 +648,24 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 470: OLD; FREN 262: OLD; GEOG 152: EHC_101; </t>
+HIST 152: OLD, NB_T3, NB_T4; GEOG 354: EHC_101; </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 468: OLD; ECON 254: OLD, EHC_101, EHC_102; ENGL 152: EHC_201, EHC_EXT_A; </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 366: OLD; SOC 458: OLD; </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 360: OLD; SOC 456: OLD; </t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-LAW 258: OLD; RS 154: OLD, EHC_101, EHC_102, EHC_201; GEOG 356: NB_T1; </t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GLAK 262: OLD; MATH 154: OLD; GEOG 354: EHC_101; </t>
+SOC 458: OLD; FREN 262: OLD; ENGL 470: EHC_101; </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 452: OLD; CAT 256: OLD, EHC_101, EHC_102, EHC_201; ENGL 454: NB_T1; </t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -696,28 +734,34 @@
 PERIOD 1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-MATH 154: OLD; POL 254: OLD; ENGL 456: EHC_101; </t>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+COMS 152: OLD; SOC 454: EHC_101; POL 254: EHC_102; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 354: OLD; ECON 356: OLD; COMS 152: OLD, EHC_101; </t>
+HIST 152: OLD, EHC_101, EHC_201; SOWK 260: EHC_102; ENGL 454: NB_T1; </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 360: OLD; ECON 366: OLD; GEOG 152: OLD; </t>
+ECON 366: OLD; GEOG 360: OLD; </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 470: OLD; ECON 354: OLD; GEOG 352: OLD; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: OLD; SOC 454: OLD; </t>
+CSM 184: OLD, EHC_102; SOC 456: EHC_101; HIST 256: EHC_201; </t>
         </is>
       </c>
     </row>
@@ -731,37 +775,37 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 256: OLD; SOC 458: OLD; </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GLAK 262: OLD; SOC 456: OLD; </t>
+RS 154: OLD, NB_T3, NB_T1, NB_T5; LAW 258: EHC_101; ENGL 458: EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B, EHC_101, NB_T2; </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CHIN 102: OLD; SOC 452: EHC_101; CAT 256: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-RS 154: OLD, NB_T1, NB_T4, NB_T5; HIST 256: EHC_101; ENGL 458: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; </t>
+GEOG 152: OLD; SOC 458: OLD; FREN 262: EHC_101; </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 356: OLD; ECON 360: OLD; CSM 184: OLD, EHC_101; </t>
+MATH 154: OLD; GLAK 262: OLD; ENGL 456: EHC_101; </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; SOC 456: OLD; </t>
+ECON 364: OLD; GEOG 358: EHC_101; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 352: OLD; ECON 354: OLD; CHIN 102: EHC_101, EHC_102; </t>
+ENGL 152: OLD; SOC 456: EHC_101; ECON 254: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; </t>
         </is>
       </c>
     </row>
@@ -775,30 +819,24 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-FREN 262: OLD; ENGL 470: OLD; SOC 452: EHC_101; </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 152: OLD; ECON 254: OLD, EHC_101, EHC_102, EHC_201; ENGL 468: NB_T1; </t>
+ECON 360: OLD; GEOG 356: OLD; </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 358: OLD; ECON 364: OLD; ENGL 152: EHC_101, EHC_102; </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-HIST 152: OLD, NB_T2, NB_T5; CAT 256: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; ENGL 454: NB_T1; </t>
+ECON 356: OLD; GEOG 354: OLD; </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 152: OLD; GEOG 256: OLD; ENGL 468: OLD; </t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -870,31 +908,25 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 256: OLD; GEOG 358: OLD; ENGL 152: OLD; </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GLAK 262: OLD; GEOG 354: OLD; COMS 152: OLD, EHC_101; </t>
+SOC 452: OLD; ECON 354: OLD; ENGL 454: OLD; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 454: OLD; POL 254: OLD; ECON 356: OLD; </t>
+SOC 454: OLD; ECON 356: OLD; ENGL 456: OLD; </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 256: OLD; CSM 184: OLD, EHC_101; GEOG 356: EHC_102; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 360: OLD; GEOG 152: OLD; ENGL 454: OLD; </t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOWK 260: OLD; GEOG 352: OLD; CHIN 102: EHC_101, EHC_102; </t>
+GLAK 262: OLD; MATH 154: OLD; </t>
         </is>
       </c>
     </row>
@@ -905,28 +937,34 @@
 PERIOD 2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+LAW 258: OLD; RS 154: OLD, EHC_101, EHC_102, EHC_201; </t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 152: OLD; ENGL 470: OLD; </t>
+POL 254: OLD; COMS 152: OLD, EHC_101; GEOG 354: EHC_102; </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CAT 256: OLD, NB_T2, NB_T4, NB_T1; CHIN 102: EHC_101, EHC_102; GEOG 352: EHC_201; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; GEOG 356: OLD; CSM 184: OLD, EHC_101; </t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 456: OLD; ECON 254: OLD, EHC_101, EHC_102, EHC_201; ECON 364: NB_T1, NB_T2; </t>
+SOWK 260: OLD; HIST 152: OLD, EHC_101, EHC_102, EHC_201; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-MATH 154: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
+FREN 262: OLD; GEOG 152: OLD; GEOG 360: EHC_101; </t>
         </is>
       </c>
     </row>
@@ -940,36 +978,36 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-RS 154: OLD, EHC_101, EHC_102, EHC_201; ENGL 468: NB_T1; </t>
+SOC 458: OLD; ECON 366: OLD; ENGL 470: EHC_101; </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: OLD; HIST 256: OLD; ECON 360: OLD; </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 452: OLD; CAT 256: OLD, EHC_101, EHC_102, EHC_201; ECON 354: NB_T1; </t>
+SOC 456: OLD; ECON 364: OLD; ENGL 468: EHC_101; </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 152: OLD, NB_T1, NB_T2; ENGL 456: EHC_101; </t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 458: OLD; FREN 262: OLD; ECON 366: EHC_101; </t>
+GEOG 256: OLD; SOC 152: OLD; </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: OLD; ECON 360: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 254: OLD, NB_T4, NB_T1; ENGL 152: EHC_101, EHC_102; GEOG 358: EHC_201; </t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1038,28 +1076,34 @@
 PERIOD 1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 454: OLD; GEOG 354: OLD; ECON 356: OLD; </t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-HIST 152: OLD, NB_T2, NB_T5; SOWK 260: EHC_101; </t>
+SOC 456: OLD; ENGL 468: OLD; </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 254: OLD, NB_T2, NB_T3; ENGL 152: EHC_101, EHC_102; ECON 364: EHC_201, EHC_EXT_A; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 452: OLD; GEOG 352: OLD; ECON 354: OLD; </t>
+HIST 256: OLD; CSM 184: OLD, EHC_101; ECON 360: EHC_102; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 152: OLD; GEOG 256: OLD; </t>
+LAW 258: OLD; RS 154: OLD, EHC_101, EHC_102, EHC_201; GEOG 356: NB_T1; </t>
         </is>
       </c>
     </row>
@@ -1070,34 +1114,34 @@
 PERIOD 2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+FREN 262: OLD; GEOG 152: OLD; ECON 366: EHC_101; </t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CHIN 102: OLD; CAT 256: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; ENGL 454: NB_T1; </t>
+SOC 458: OLD; ENGL 470: OLD; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: OLD; GEOG 358: OLD; ECON 364: OLD; </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CSM 184: OLD, NB_T4; HIST 256: EHC_101; ENGL 458: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; </t>
+POL 254: OLD; COMS 152: OLD, EHC_101; ECON 356: EHC_102; </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-RS 154: OLD, NB_T2, NB_T5, NB_T3; LAW 258: EHC_101; </t>
+GEOG 360: OLD; SOC 452: OLD; ENGL 454: OLD; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-MATH 154: OLD; GLAK 262: OLD; </t>
+GLAK 262: OLD; MATH 154: OLD; GEOG 354: EHC_101; </t>
         </is>
       </c>
     </row>
@@ -1108,380 +1152,32 @@
 PERIOD 3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-COMS 152: OLD; POL 254: EHC_101; ENGL 456: EHC_102; </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 152: OLD; FREN 262: OLD; ENGL 470: EHC_101; </t>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 454: OLD; ENGL 456: OLD; </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOWK 260: OLD; HIST 152: OLD, EHC_101, EHC_102, EHC_201; GEOG 352: NB_T1; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: OLD; GEOG 356: OLD; ECON 360: OLD; </t>
+CAT 256: OLD, NB_T5, NB_T4, NB_T1; CHIN 102: EHC_101, EHC_102; ECON 354: EHC_201; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 458: OLD; GEOG 360: OLD; ECON 366: EHC_101; </t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 152: OLD; ECON 254: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; ENGL 468: NB_T1; </t>
+GEOG 256: OLD; SOC 152: OLD; GEOG 358: OLD; </t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-PERIOD 1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-RS 154: OLD, EHC_201, EHC_101, EHC_102; ENGL 468: NB_T1; </t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 456: OLD; ECON 360: OLD; HIST 256: OLD; </t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 452: OLD; ECON 354: OLD; CAT 256: OLD, EHC_101, EHC_102, EHC_201; </t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-MATH 154: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-PERIOD 2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-HIST 152: OLD, NB_T1, NB_T2; ENGL 456: EHC_101; </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 152: OLD; GEOG 360: OLD; ENGL 454: OLD; </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 152: OLD; ENGL 470: OLD; </t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 456: OLD; ECON 364: OLD; ECON 254: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; </t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 454: OLD; ECON 356: OLD; POL 254: OLD; </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-PERIOD 3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GLAK 262: OLD; COMS 152: OLD, EHC_101; GEOG 354: EHC_102; </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 458: OLD; ECON 366: OLD; FREN 262: EHC_101; </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOWK 260: OLD; CHIN 102: OLD; GEOG 352: EHC_101; </t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 256: OLD; ENGL 152: OLD; GEOG 358: EHC_101; </t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-LAW 258: OLD; CSM 184: OLD, EHC_101; GEOG 356: EHC_102; </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-PERIOD 1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 456: OLD; ENGL 152: OLD; GEOG 358: EHC_101; </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-LAW 258: OLD; ENGL 468: OLD; </t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 366: OLD; FREN 262: OLD; ENGL 454: EHC_101; </t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOWK 260: OLD; ENGL 456: OLD; </t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-MATH 154: OLD; ECON 356: OLD; POL 254: OLD; </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-PERIOD 2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 458: OLD; GEOG 152: OLD; GEOG 360: EHC_101; </t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 256: OLD; ENGL 470: OLD; </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 454: OLD; COMS 152: OLD, EHC_101; GEOG 354: EHC_102; </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-RS 154: OLD, EHC_101, EHC_201, EHC_102; ECON 360: NB_T1; HIST 256: NB_T2; </t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 152: OLD; ECON 364: OLD; ECON 254: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; </t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 456: OLD; CSM 184: OLD, EHC_101; GEOG 356: EHC_102; </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-PERIOD 3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-HIST 152: OLD, NB_T4, NB_T2; ECON 354: EHC_101; CAT 256: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GLAK 262: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 452: OLD; CHIN 102: OLD; GEOG 352: EHC_101; </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/Chromosome_data.xlsx
+++ b/data/Chromosome_data.xlsx
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C2" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -459,10 +459,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C3" t="n">
-        <v>63</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4">
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
-        <v>48</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
-        <v>45</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -566,31 +566,37 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: OLD; ECON 354: OLD; CHIN 102: OLD; </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-RS 154: OLD, NB_T3, NB_T5, NB_T4; GEOG 358: EHC_101; </t>
+SOC 452: OLD; CAT 256: OLD; COMS 152: EHC_101; </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GLAK 262: OLD; MATH 154: OLD, EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B, NB_T1; ECON 354: NB_T2; </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GLAK 262: OLD; ECON 356: OLD; COMS 152: OLD, EHC_101; </t>
+SOC 456: OLD; HIST 256: EHC_101, EHC_102, EHC_201; ENGL 152: NB_T1, NB_T2; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; ECON 360: OLD; CSM 184: OLD, EHC_101; </t>
+ECON 366: OLD; ENGL 456: OLD; GEOG 352: OLD; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 454: OLD; POL 254: OLD; ENGL 456: OLD; </t>
+SOC 454: OLD; POL 254: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 458: OLD; FREN 262: EHC_101; HIST 152: EHC_102; </t>
         </is>
       </c>
     </row>
@@ -604,37 +610,19 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 152: OLD; GEOG 360: OLD; </t>
+SOC 456: OLD; ECON 254: EHC_101, EHC_102, EHC_201; GEOG 152: NB_T1, NB_T2, NB_T3; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: OLD; ECON 254: OLD, EHC_101, EHC_102, EHC_201; ENGL 468: NB_T1; </t>
+GEOG 360: OLD; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 366: OLD; GEOG 152: OLD; GEOG 352: OLD; </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 256: OLD; ECON 364: OLD; ENGL 152: EHC_101, EHC_102; </t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 456: OLD; HIST 256: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-MATH 154: OLD; GEOG 356: OLD; </t>
+GEOG 256: OLD, NB_T4, NB_T5; ECON 364: EHC_101; ENGL 454: EHC_102; </t>
         </is>
       </c>
     </row>
@@ -645,22 +633,28 @@
 PERIOD 3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-HIST 152: OLD, NB_T3, NB_T4; GEOG 354: EHC_101; </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 458: OLD; FREN 262: OLD; ENGL 470: EHC_101; </t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 452: OLD; CAT 256: OLD, EHC_101, EHC_102, EHC_201; ENGL 454: NB_T1; </t>
+LAW 258: OLD; SOC 152: OLD, EHC_101, EHC_102, EHC_201; ECON 360: NB_T1; </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 358: OLD; </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 468: OLD; GEOG 354: OLD; </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 470: OLD; GEOG 356: OLD; </t>
         </is>
       </c>
     </row>
@@ -734,34 +728,22 @@
 PERIOD 1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-COMS 152: OLD; SOC 454: EHC_101; POL 254: EHC_102; </t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 152: OLD, EHC_101, EHC_201; SOWK 260: EHC_102; ENGL 454: NB_T1; </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 366: OLD; GEOG 360: OLD; </t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 470: OLD; ECON 354: OLD; GEOG 352: OLD; </t>
+SOC 456: OLD; ENGL 152: EHC_101, EHC_102; ENGL 468: EHC_201; </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+LAW 258: OLD; ECON 366: OLD; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CSM 184: OLD, EHC_102; SOC 456: EHC_101; HIST 256: EHC_201; </t>
+SOC 458: OLD; HIST 152: EHC_101; CAT 256: EHC_102; </t>
         </is>
       </c>
     </row>
@@ -775,37 +757,31 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-RS 154: OLD, NB_T3, NB_T1, NB_T5; LAW 258: EHC_101; ENGL 458: EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B, EHC_101, NB_T2; </t>
+GEOG 256: OLD, EHC_101, EHC_201; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: OLD; GEOG 152: EHC_101, EHC_102, EHC_201; ENGL 470: NB_T1; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CHIN 102: OLD; SOC 452: EHC_101; CAT 256: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 152: OLD; SOC 458: OLD; FREN 262: EHC_101; </t>
+GLAK 262: OLD; GEOG 360: OLD; ECON 364: OLD; </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-MATH 154: OLD; GLAK 262: OLD; ENGL 456: EHC_101; </t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 364: OLD; GEOG 358: EHC_101; </t>
+MATH 154: OLD, NB_T2, NB_T3, NB_T4, NB_T1, NB_T5; POL 254: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; GEOG 352: NB_R1, NB_R2; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 152: OLD; SOC 456: EHC_101; ECON 254: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; </t>
+ECON 254: OLD, EHC_102; GEOG 356: EHC_101; ECON 354: EHC_201; </t>
         </is>
       </c>
     </row>
@@ -819,19 +795,25 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 360: OLD; GEOG 356: OLD; </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 356: OLD; GEOG 354: OLD; </t>
+SOC 152: OLD, EHC_201, EHC_101; HIST 256: EHC_102, EHC_EXT_A, EHC_EXT_B; GEOG 354: NB_T1; </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 452: OLD; COMS 152: OLD; ENGL 454: EHC_101; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 152: OLD; GEOG 256: OLD; ENGL 468: OLD; </t>
+FREN 262: OLD; GEOG 358: OLD; ECON 360: EHC_101; </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 454: OLD; CSM 184: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B, NB_T1, NB_T2, NB_T3, NB_T4, NB_T5; ENGL 456: OLD; </t>
         </is>
       </c>
     </row>
@@ -908,25 +890,31 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 452: OLD; ECON 354: OLD; ENGL 454: OLD; </t>
+SOC 456: OLD; ENGL 468: EHC_101; ENGL 152: EHC_102, EHC_201; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 454: OLD; ECON 356: OLD; ENGL 456: OLD; </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-HIST 256: OLD; CSM 184: OLD, EHC_101; GEOG 356: EHC_102; </t>
+SOC 454: OLD; ENGL 456: EHC_101; CSM 184: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B, NB_T1, NB_T2, NB_T3, NB_T4, NB_T5; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GLAK 262: OLD; MATH 154: OLD; </t>
+ECON 254: OLD, NB_T4; GEOG 356: EHC_101; ECON 354: EHC_102; </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+LAW 258: OLD; ECON 366: OLD; </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 452: OLD; ENGL 454: OLD; COMS 152: OLD; </t>
         </is>
       </c>
     </row>
@@ -940,31 +928,25 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; RS 154: OLD, EHC_101, EHC_102, EHC_201; </t>
+GLAK 262: OLD; GEOG 360: OLD; ECON 364: OLD; </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-POL 254: OLD; COMS 152: OLD, EHC_101; GEOG 354: EHC_102; </t>
+GEOG 256: OLD, NB_T1, NB_T5; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CAT 256: OLD, NB_T2, NB_T4, NB_T1; CHIN 102: EHC_101, EHC_102; GEOG 352: EHC_201; </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOWK 260: OLD; HIST 152: OLD, EHC_101, EHC_102, EHC_201; </t>
+SOC 456: OLD; ENGL 470: EHC_101; GEOG 152: EHC_102, EHC_201, EHC_101; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-FREN 262: OLD; GEOG 152: OLD; GEOG 360: EHC_101; </t>
+FREN 262: OLD; GEOG 358: OLD; ECON 360: EHC_101; </t>
         </is>
       </c>
     </row>
@@ -978,31 +960,19 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 458: OLD; ECON 366: OLD; ENGL 470: EHC_101; </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 456: OLD; ECON 364: OLD; ENGL 468: EHC_101; </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 256: OLD; SOC 152: OLD; </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 456: OLD; ECON 360: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
+SOC 152: OLD, NB_T3, NB_T4; HIST 256: EHC_101, EHC_102, EHC_201; GEOG 354: NB_T1; </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 458: OLD; HIST 152: EHC_101; CAT 256: EHC_102; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 254: OLD, NB_T4, NB_T1; ENGL 152: EHC_101, EHC_102; GEOG 358: EHC_201; </t>
+MATH 154: OLD, NB_T1, NB_T3, NB_T2, NB_T5, NB_T4; POL 254: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; GEOG 352: NB_R1, NB_R2; </t>
         </is>
       </c>
     </row>
@@ -1079,31 +1049,37 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
+SOC 152: OLD, EHC_201, EHC_101; </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: OLD; ENGL 468: OLD; </t>
+SOC 452: OLD; ENGL 454: OLD; CAT 256: OLD; </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 458: OLD; FREN 262: EHC_101; ECON 354: EHC_102; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 254: OLD, NB_T2, NB_T3; ENGL 152: EHC_101, EHC_102; ECON 364: EHC_201, EHC_EXT_A; </t>
+GEOG 358: OLD; COMS 152: OLD; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 256: OLD; CSM 184: OLD, EHC_101; ECON 360: EHC_102; </t>
+ENGL 152: OLD; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; RS 154: OLD, EHC_101, EHC_102, EHC_201; GEOG 356: NB_T1; </t>
+LAW 258: OLD; ECON 364: OLD; GEOG 354: EHC_101; </t>
         </is>
       </c>
     </row>
@@ -1114,34 +1090,22 @@
 PERIOD 2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-FREN 262: OLD; GEOG 152: OLD; ECON 366: EHC_101; </t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 458: OLD; ENGL 470: OLD; </t>
+GEOG 152: OLD, NB_T2; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-POL 254: OLD; COMS 152: OLD, EHC_101; ECON 356: EHC_102; </t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 360: OLD; SOC 452: OLD; ENGL 454: OLD; </t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GLAK 262: OLD; MATH 154: OLD; GEOG 354: EHC_101; </t>
+SOC 456: OLD; ENGL 468: EHC_101; HIST 256: EHC_102, EHC_201, EHC_EXT_A; </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GLAK 262: OLD; ECON 360: OLD; GEOG 352: EHC_101; </t>
         </is>
       </c>
     </row>
@@ -1152,28 +1116,40 @@
 PERIOD 3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 454: OLD; ENGL 456: EHC_101; POL 254: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 256: OLD, EHC_101, EHC_201; ECON 366: EHC_102; GEOG 356: NB_T1; </t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 454: OLD; ENGL 456: OLD; </t>
+HIST 152: OLD; </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: OLD; HIST 152: OLD, EHC_101, EHC_102, EHC_201; GEOG 352: NB_T1; </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CAT 256: OLD, NB_T5, NB_T4, NB_T1; CHIN 102: EHC_101, EHC_102; ECON 354: EHC_201; </t>
+MATH 154: OLD, EHC_201, EHC_101, EHC_102, EHC_EXT_B, EHC_EXT_A, NB_T5; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 256: OLD; SOC 152: OLD; GEOG 358: OLD; </t>
+SOC 456: OLD; ENGL 470: EHC_101; ECON 254: EHC_102, EHC_201, EHC_101; </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 360: OLD; CSM 184: OLD, EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B, NB_T1, NB_T2, NB_T3; </t>
         </is>
       </c>
     </row>
